--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97AD7428-8466-405C-AF42-0CC4A7A5FE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1A540-7521-4272-9959-E3690855D2D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -364,6 +365,9 @@
   </si>
   <si>
     <t>afhra-sajeetha.sajeeth-akthar@capgemini.com</t>
+  </si>
+  <si>
+    <t>13-12-2022 Afternoon</t>
   </si>
 </sst>
 </file>
@@ -547,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -648,6 +652,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A145A7-606F-445A-9B8A-A5B56485A5B9}">
   <dimension ref="B3:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1920,4 +1925,452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
+  <dimension ref="B2:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15" thickBot="1"/>
+    <row r="3" spans="2:4" ht="15" thickBot="1">
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1">
+      <c r="B4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" thickBot="1">
+      <c r="B5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1">
+      <c r="B6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickBot="1">
+      <c r="B7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" thickBot="1">
+      <c r="B10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15" thickBot="1">
+      <c r="B11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" thickBot="1">
+      <c r="B12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" thickBot="1">
+      <c r="B13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" thickBot="1">
+      <c r="B14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" thickBot="1">
+      <c r="B15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" thickBot="1">
+      <c r="B16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" thickBot="1">
+      <c r="B17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" thickBot="1">
+      <c r="B18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickBot="1">
+      <c r="B19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15" thickBot="1">
+      <c r="B20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" thickBot="1">
+      <c r="B21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" thickBot="1">
+      <c r="B22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" thickBot="1">
+      <c r="B23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" thickBot="1">
+      <c r="B24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickBot="1">
+      <c r="B25" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickBot="1">
+      <c r="B26" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15" thickBot="1">
+      <c r="B27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15" thickBot="1">
+      <c r="B28" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" thickBot="1">
+      <c r="B29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15" thickBot="1">
+      <c r="B30" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15" thickBot="1">
+      <c r="B31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15" thickBot="1">
+      <c r="B32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
+      <c r="B33" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickBot="1">
+      <c r="B34" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
+      <c r="B35" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1">
+      <c r="B36" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1">
+      <c r="B37" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15" thickBot="1">
+      <c r="B38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:PRIYANKA.A.V@CAPGEMINI.COM" xr:uid="{752907CE-DD8C-43ED-AF54-57F1CCDFB8DD}"/>
+    <hyperlink ref="C5" r:id="rId2" display="mailto:SRIKEERTHI.M-K@CAPGEMINI.COM" xr:uid="{CDE42E5F-7521-4759-AA5D-391D32F81792}"/>
+    <hyperlink ref="C6" r:id="rId3" display="mailto:LAVANYA.B.J@CAPGEMINI.COM" xr:uid="{03231C5B-1CB6-41AD-B891-49AF57DD17A9}"/>
+    <hyperlink ref="C7" r:id="rId4" display="mailto:SANDHYA.A.V@CAPGEMINI.COM" xr:uid="{EA7755D1-3198-477C-A01F-E2EDF0C38395}"/>
+    <hyperlink ref="C8" r:id="rId5" display="mailto:LAKSHMI.DHULEHOLI@CAPGEMINI.COM" xr:uid="{70E21FC3-8142-4FA5-B6B9-BBFA95419C8B}"/>
+    <hyperlink ref="C9" r:id="rId6" display="mailto:BHOOMIKA.G-S@CAPGEMINI.COM" xr:uid="{A347EA6D-8B41-4FDD-9328-3CAFE59E3E96}"/>
+    <hyperlink ref="C10" r:id="rId7" display="mailto:SUSHMITHA.B-IRANI@CAPGEMINI.COM" xr:uid="{35CB568F-0366-4A61-B4BF-5878FA7BC6F9}"/>
+    <hyperlink ref="C11" r:id="rId8" display="mailto:AISHWARYA.S-M@CAPGEMINI.COM" xr:uid="{22149885-4A23-48EE-A301-D1E5AE50A89B}"/>
+    <hyperlink ref="C12" r:id="rId9" display="mailto:KAVERI.B-S@CAPGEMINI.COM" xr:uid="{76A42949-4F7E-453E-A0D2-30B66A6E534B}"/>
+    <hyperlink ref="C13" r:id="rId10" display="mailto:AMULYA.ARVIND-PURUSHAN@CAPGEMINI.COM" xr:uid="{637D395C-651E-4549-BD19-664F9FF2A505}"/>
+    <hyperlink ref="C14" r:id="rId11" display="mailto:RUCHITHA.B.S@CAPGEMINI.COM" xr:uid="{E6EEC44C-4386-47E2-A2DE-4D99A8B8E757}"/>
+    <hyperlink ref="C15" r:id="rId12" display="mailto:NISHA.WAGH@CAPGEMINI.COM" xr:uid="{19C68F40-DEE7-4A08-81A4-75C119440AAE}"/>
+    <hyperlink ref="C16" r:id="rId13" display="mailto:ANUSHA.P-NAKOD@CAPGEMINI.COM" xr:uid="{48157EAE-B151-4D97-8D1E-C38677432183}"/>
+    <hyperlink ref="C17" r:id="rId14" display="mailto:MADHU.S-CHOUDHARY@CAPGEMINI.COM" xr:uid="{E7C74A6B-0C7B-4FB9-B41D-21CC699A267E}"/>
+    <hyperlink ref="C18" r:id="rId15" display="mailto:SHUBHANGI.S-EKBOTE@CAPGEMINI.COM" xr:uid="{19CA750B-C224-422D-927D-A6B70305FE97}"/>
+    <hyperlink ref="C19" r:id="rId16" display="mailto:NIKITA-IRANNA.RAMDURG@CAPGEMINI.COM" xr:uid="{25A802B5-A4D2-4A1E-A96F-A0F3CF725C79}"/>
+    <hyperlink ref="C20" r:id="rId17" display="mailto:SUSHMITA.NAGARALLI@CAPGEMINI.COM" xr:uid="{F2677733-3143-4A74-8E3E-8D24FF68F2AE}"/>
+    <hyperlink ref="C21" r:id="rId18" display="mailto:POOJA.HUBLI@CAPGEMINI.COM" xr:uid="{678E9393-2265-432F-A6B2-77032F0F35AE}"/>
+    <hyperlink ref="C22" r:id="rId19" display="mailto:MONISHA.L.S@CAPGEMINI.COM" xr:uid="{20AC441A-3C36-4816-BB1B-BD8BAB5639C8}"/>
+    <hyperlink ref="C23" r:id="rId20" display="mailto:SUREKHA.POOJARI@CAPGEMINI.COM" xr:uid="{AD75DE0C-59F5-47ED-97C7-54B8C72867EF}"/>
+    <hyperlink ref="C24" r:id="rId21" display="mailto:NAGASHREE.NAGASHREE@CAPGEMINI.COM" xr:uid="{C180A245-2CD1-4362-90BC-B17CF0EB8072}"/>
+    <hyperlink ref="C25" r:id="rId22" display="mailto:POORNIMA.C@CAPGEMINI.COM" xr:uid="{DC3195DD-084E-48D6-9864-75D5AE094496}"/>
+    <hyperlink ref="C26" r:id="rId23" display="mailto:SOUJANYA.SHETTY@CAPGEMINI.COM" xr:uid="{45861AA5-B5C3-4552-A0BA-17D657E93DD7}"/>
+    <hyperlink ref="C27" r:id="rId24" display="mailto:OORVI.U-DEVADIGA@CAPGEMINI.COM" xr:uid="{827C3D92-21CA-4D4A-B18C-02F3D6F70EFD}"/>
+    <hyperlink ref="C28" r:id="rId25" display="mailto:AISHWARYA.C.C@CAPGEMINI.COM" xr:uid="{FB85C102-D1A7-46F1-995D-C95266BA0E17}"/>
+    <hyperlink ref="C29" r:id="rId26" display="mailto:RAMITHA.RAMITHA@CAPGEMINI.COM" xr:uid="{E879163C-3B5F-472E-A253-5195AA437161}"/>
+    <hyperlink ref="C30" r:id="rId27" display="mailto:SANMATI.J-JAINAR@CAPGEMINI.COM" xr:uid="{A958A3DB-AD9E-4AB0-90A8-FACB2245E17E}"/>
+    <hyperlink ref="C31" r:id="rId28" display="mailto:JYOTHI.M-B@CAPGEMINI.COM" xr:uid="{7B0FC841-6B02-4F1C-A269-EF8CA776391B}"/>
+    <hyperlink ref="C32" r:id="rId29" display="mailto:NISHITHA.P-V@CAPGEMINI.COM" xr:uid="{A7A3B17C-0A36-4319-9756-8AD7812C9048}"/>
+    <hyperlink ref="C33" r:id="rId30" display="mailto:DIVYA.T-R@CAPGEMINI.COM" xr:uid="{C7DF095E-BAB9-4A6A-AE32-22996A180C59}"/>
+    <hyperlink ref="C34" r:id="rId31" display="mailto:RACHANA.B.SHETTY@CAPGEMINI.COM" xr:uid="{5B83DFE8-6506-4B08-B57F-792B4FA0B3AC}"/>
+    <hyperlink ref="C35" r:id="rId32" display="mailto:DEVAKI.DEVAKI@CAPGEMINI.COM" xr:uid="{A6900216-D07A-4AE6-A0CD-69CB4741A229}"/>
+    <hyperlink ref="C36" r:id="rId33" display="mailto:DEEKSHA.SHANABHAG@CAPGEMINI.COM" xr:uid="{0E7CB75C-F31A-433B-A04E-21C24E5A37B9}"/>
+    <hyperlink ref="C37" r:id="rId34" display="mailto:AREEJA.PARWIN@CAPGEMINI.COM" xr:uid="{9AA79973-C032-427D-B9A1-34CAD7A88610}"/>
+    <hyperlink ref="C38" r:id="rId35" display="mailto:afhra-sajeetha.sajeeth-akthar@capgemini.com" xr:uid="{E540F034-677E-4B7D-B665-26FA648FB18D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1A540-7521-4272-9959-E3690855D2D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AE71BB-3C43-4AFB-B02F-FA97638975FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>13-12-2022 Afternoon</t>
+  </si>
+  <si>
+    <t>13-12-2022 Morning</t>
   </si>
 </sst>
 </file>
@@ -1929,21 +1932,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:D38"/>
+  <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1"/>
-    <row r="3" spans="2:4" ht="15" thickBot="1">
+    <row r="2" spans="2:5" ht="15" thickBot="1"/>
+    <row r="3" spans="2:5" ht="15" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -1951,10 +1955,13 @@
         <v>42</v>
       </c>
       <c r="D3" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" thickBot="1">
+    <row r="4" spans="2:5" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -1964,8 +1971,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="15" thickBot="1">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -1975,8 +1985,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -1986,8 +1999,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -1997,8 +2013,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" thickBot="1">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2008,8 +2027,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" thickBot="1">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2019,8 +2041,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="15" thickBot="1">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2030,8 +2055,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" thickBot="1">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2041,8 +2069,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" thickBot="1">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2052,8 +2083,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" thickBot="1">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2063,8 +2097,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2074,8 +2111,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="15" thickBot="1">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2085,8 +2125,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="15" thickBot="1">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -2096,8 +2139,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2107,8 +2153,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="15" thickBot="1">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2118,8 +2167,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2129,8 +2181,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="15" thickBot="1">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2140,8 +2195,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" thickBot="1">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2151,8 +2209,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2162,8 +2223,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" thickBot="1">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2173,8 +2237,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" thickBot="1">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2184,8 +2251,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" thickBot="1">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -2195,8 +2265,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2206,8 +2279,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="15" thickBot="1">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -2217,8 +2293,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -2228,8 +2307,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" thickBot="1">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -2239,8 +2321,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="15" thickBot="1">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -2250,8 +2335,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" thickBot="1">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -2261,8 +2349,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="15" thickBot="1">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -2272,8 +2363,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -2283,8 +2377,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -2294,8 +2391,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -2305,8 +2405,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -2316,8 +2419,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -2325,7 +2431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1">
+    <row r="38" spans="2:5" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AE71BB-3C43-4AFB-B02F-FA97638975FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372AF9D-080F-47DF-817D-02D9889B0A49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="116">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>13-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>14-12-2022 Morning</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1932,22 +1937,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1"/>
-    <row r="3" spans="2:5" ht="15" thickBot="1">
+    <row r="2" spans="2:14" ht="15" thickBot="1"/>
+    <row r="3" spans="2:14" s="27" customFormat="1" ht="29.4" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -1960,8 +1964,19 @@
       <c r="E3" s="34" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1">
+      <c r="F3" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -1974,8 +1989,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="15" thickBot="1">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -1988,8 +2006,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2002,8 +2023,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2016,8 +2040,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2030,8 +2057,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2044,8 +2074,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2058,8 +2091,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2072,8 +2108,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2086,8 +2125,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2100,8 +2142,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2114,8 +2159,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2128,8 +2176,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -2142,8 +2193,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2156,8 +2210,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2170,8 +2227,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2184,8 +2244,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2198,8 +2261,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2212,8 +2278,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2226,8 +2295,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2240,8 +2312,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2254,8 +2329,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -2268,8 +2346,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2282,8 +2363,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -2296,8 +2380,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="15" thickBot="1">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -2310,8 +2397,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -2324,8 +2414,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -2338,8 +2431,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="15" thickBot="1">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -2352,8 +2448,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -2366,8 +2465,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -2380,8 +2482,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -2394,8 +2499,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -2408,8 +2516,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -2422,8 +2533,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -2431,7 +2545,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1">
+    <row r="38" spans="2:6" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372AF9D-080F-47DF-817D-02D9889B0A49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045EF4C4-CBC6-4D6C-9BA2-463C52B309A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>14-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>14-12-2022 Evening</t>
+  </si>
+  <si>
+    <t>15-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>15-12-2022 Afternoon</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1949,7 @@
   <dimension ref="B2:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
@@ -1967,9 +1976,15 @@
       <c r="F3" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -1992,6 +2007,15 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -2009,6 +2033,15 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
@@ -2026,6 +2059,15 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
@@ -2043,6 +2085,15 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
@@ -2060,6 +2111,15 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
@@ -2077,6 +2137,15 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
@@ -2094,6 +2163,15 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
@@ -2111,6 +2189,15 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
@@ -2128,6 +2215,15 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
@@ -2145,6 +2241,15 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
@@ -2162,6 +2267,15 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
@@ -2179,6 +2293,15 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
@@ -2196,8 +2319,17 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2213,8 +2345,17 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2230,8 +2371,17 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2247,8 +2397,17 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2264,8 +2423,17 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2281,8 +2449,17 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2298,8 +2475,17 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2315,8 +2501,17 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2332,8 +2527,17 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -2349,8 +2553,17 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2366,8 +2579,17 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" thickBot="1">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -2383,8 +2605,17 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -2400,8 +2631,17 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -2417,8 +2657,17 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -2434,8 +2683,17 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="15" thickBot="1">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -2451,8 +2709,17 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -2468,8 +2735,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -2485,8 +2761,17 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="15" thickBot="1">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -2502,8 +2787,17 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -2519,8 +2813,17 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -2536,8 +2839,17 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -2545,7 +2857,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1">
+    <row r="38" spans="2:9" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045EF4C4-CBC6-4D6C-9BA2-463C52B309A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D978B8-53B3-4996-AD87-10A7BD3386EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>15-12-2022 Afternoon</t>
+  </si>
+  <si>
+    <t>16-12-2022 Morning</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
@@ -1985,7 +1988,9 @@
       <c r="I3" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="34" t="s">
+        <v>119</v>
+      </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
@@ -2016,6 +2021,9 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -2042,6 +2050,9 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
@@ -2068,6 +2079,9 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
@@ -2094,6 +2108,9 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
@@ -2120,6 +2137,9 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
@@ -2146,6 +2166,9 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
@@ -2172,6 +2195,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
@@ -2198,6 +2224,9 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
@@ -2224,6 +2253,9 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
@@ -2250,6 +2282,9 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
@@ -2276,6 +2311,9 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
@@ -2302,6 +2340,9 @@
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
@@ -2328,8 +2369,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2354,8 +2398,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2380,8 +2427,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2406,8 +2456,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2432,8 +2485,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" thickBot="1">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2458,8 +2514,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2484,8 +2543,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2510,8 +2572,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2536,8 +2601,11 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="15" thickBot="1">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -2562,8 +2630,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="15" thickBot="1">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2588,8 +2659,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -2614,8 +2688,11 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -2640,8 +2717,11 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -2666,8 +2746,11 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -2692,8 +2775,11 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -2718,8 +2804,11 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -2744,8 +2833,11 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -2796,8 +2891,11 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -2822,8 +2920,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -2848,8 +2949,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -2857,7 +2961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1">
+    <row r="38" spans="2:10" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D978B8-53B3-4996-AD87-10A7BD3386EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8C119F-1EFF-4EB8-BB4C-A7D36D071151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>16-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>16-12-2022 Afternoon</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
@@ -1991,7 +1994,9 @@
       <c r="J3" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="34"/>
+      <c r="K3" s="34" t="s">
+        <v>120</v>
+      </c>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
@@ -2053,6 +2058,9 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
@@ -2082,6 +2090,9 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
@@ -2111,6 +2122,9 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
@@ -2140,6 +2154,9 @@
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
@@ -2169,6 +2186,9 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
@@ -2198,6 +2218,9 @@
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
@@ -2227,6 +2250,9 @@
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
@@ -2256,6 +2282,9 @@
       <c r="J12">
         <v>1</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
@@ -2285,6 +2314,9 @@
       <c r="J13">
         <v>1</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
@@ -2314,6 +2346,9 @@
       <c r="J14">
         <v>1</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
@@ -2343,6 +2378,9 @@
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
@@ -2372,8 +2410,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2401,8 +2442,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2430,8 +2474,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2459,8 +2506,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2488,8 +2538,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" thickBot="1">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2517,8 +2570,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2546,8 +2602,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" thickBot="1">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2575,8 +2634,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2604,8 +2666,11 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -2633,8 +2698,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2662,8 +2730,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="15" thickBot="1">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -2691,8 +2762,11 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -2720,8 +2794,11 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -2749,8 +2826,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -2778,8 +2858,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -2807,8 +2890,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -2836,8 +2922,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -2865,8 +2954,11 @@
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -2894,8 +2986,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -2923,8 +3018,11 @@
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="15" thickBot="1">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -2952,8 +3050,11 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -2961,7 +3062,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15" thickBot="1">
+    <row r="38" spans="2:11" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8C119F-1EFF-4EB8-BB4C-A7D36D071151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94026D-6CBF-4578-B267-F386741C2DBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="124">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -389,6 +390,15 @@
   </si>
   <si>
     <t>16-12-2022 Afternoon</t>
+  </si>
+  <si>
+    <t>Handson scores</t>
+  </si>
+  <si>
+    <t>17-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>17-12-2022 Evening</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
@@ -1997,8 +2007,12 @@
       <c r="K3" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="L3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>123</v>
+      </c>
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="2:14" ht="15" thickBot="1">
@@ -2029,6 +2043,15 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -2061,6 +2084,12 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
@@ -2093,6 +2122,12 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
@@ -2125,6 +2160,12 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
@@ -2157,6 +2198,12 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
@@ -2189,6 +2236,12 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
@@ -2221,6 +2274,12 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
@@ -2253,6 +2312,12 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
@@ -2285,6 +2350,12 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
@@ -2317,6 +2388,12 @@
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
@@ -2349,6 +2426,12 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
@@ -2381,6 +2464,12 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
@@ -2413,8 +2502,14 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="15" thickBot="1">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2445,8 +2540,14 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2477,8 +2578,14 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2509,8 +2616,14 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2541,8 +2654,14 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2573,8 +2692,14 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" ht="15" thickBot="1">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2605,8 +2730,14 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" ht="15" thickBot="1">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2637,8 +2768,14 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" thickBot="1">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2669,8 +2806,14 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="15" thickBot="1">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -2701,8 +2844,14 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" ht="15" thickBot="1">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2733,8 +2882,14 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -2765,8 +2920,14 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" ht="15" thickBot="1">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -2797,8 +2958,14 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" ht="15" thickBot="1">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -2829,8 +2996,14 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" thickBot="1">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -2861,8 +3034,14 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" ht="15" thickBot="1">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -2893,8 +3072,14 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" ht="15" thickBot="1">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -2925,8 +3110,14 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" thickBot="1">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -2957,8 +3148,14 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="15" thickBot="1">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -2989,8 +3186,14 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" ht="15" thickBot="1">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -3021,8 +3224,14 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" ht="15" thickBot="1">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -3053,8 +3262,14 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -3062,7 +3277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15" thickBot="1">
+    <row r="38" spans="2:13" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>
@@ -3110,4 +3325,413 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9681E04E-9FF6-42B4-B559-E905AA141B08}">
+  <dimension ref="B2:E38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15" thickBot="1"/>
+    <row r="3" spans="2:5" ht="15" thickBot="1">
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" thickBot="1">
+      <c r="B4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1">
+      <c r="B5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1">
+      <c r="B6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1">
+      <c r="B7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15" thickBot="1">
+      <c r="B10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1">
+      <c r="B11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" thickBot="1">
+      <c r="B12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="29.4" thickBot="1">
+      <c r="B13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1">
+      <c r="B14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1">
+      <c r="B15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickBot="1">
+      <c r="B16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1">
+      <c r="B17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" thickBot="1">
+      <c r="B18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="29.4" thickBot="1">
+      <c r="B19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1">
+      <c r="B20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1">
+      <c r="B21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1">
+      <c r="B22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" thickBot="1">
+      <c r="B23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15" thickBot="1">
+      <c r="B24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickBot="1">
+      <c r="B25" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15" thickBot="1">
+      <c r="B26" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickBot="1">
+      <c r="B27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15" thickBot="1">
+      <c r="B28" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1">
+      <c r="B29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15" thickBot="1">
+      <c r="B30" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15" thickBot="1">
+      <c r="B31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15" thickBot="1">
+      <c r="B32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1">
+      <c r="B33" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickBot="1">
+      <c r="B34" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1">
+      <c r="B35" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15" thickBot="1">
+      <c r="B36" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15" thickBot="1">
+      <c r="B37" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="29.4" thickBot="1">
+      <c r="B38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:PRIYANKA.A.V@CAPGEMINI.COM" xr:uid="{8C15E1F0-B71E-4F89-AE40-5D0BC0735170}"/>
+    <hyperlink ref="C5" r:id="rId2" display="mailto:SRIKEERTHI.M-K@CAPGEMINI.COM" xr:uid="{36B632B1-D2F2-4873-B811-1004D483EFA1}"/>
+    <hyperlink ref="C6" r:id="rId3" display="mailto:LAVANYA.B.J@CAPGEMINI.COM" xr:uid="{F4F48A0F-9E34-4DDF-9ECB-D175B526E8EB}"/>
+    <hyperlink ref="C7" r:id="rId4" display="mailto:SANDHYA.A.V@CAPGEMINI.COM" xr:uid="{8E97B524-E0B1-435D-AF6C-20340BA53472}"/>
+    <hyperlink ref="C8" r:id="rId5" display="mailto:LAKSHMI.DHULEHOLI@CAPGEMINI.COM" xr:uid="{B7C83244-CE61-4DEE-86DD-F91B38EC56C3}"/>
+    <hyperlink ref="C9" r:id="rId6" display="mailto:BHOOMIKA.G-S@CAPGEMINI.COM" xr:uid="{AD1C15E6-4A0C-4286-B7C7-A2B5763ACA33}"/>
+    <hyperlink ref="C10" r:id="rId7" display="mailto:SUSHMITHA.B-IRANI@CAPGEMINI.COM" xr:uid="{6DCC08D4-6F8F-4983-A6B0-4B2F494DB602}"/>
+    <hyperlink ref="C11" r:id="rId8" display="mailto:AISHWARYA.S-M@CAPGEMINI.COM" xr:uid="{1D629D4A-C4DD-47B0-A821-8200BED22F7D}"/>
+    <hyperlink ref="C12" r:id="rId9" display="mailto:KAVERI.B-S@CAPGEMINI.COM" xr:uid="{62EF209A-510A-48BF-87A9-59331864F948}"/>
+    <hyperlink ref="C13" r:id="rId10" display="mailto:AMULYA.ARVIND-PURUSHAN@CAPGEMINI.COM" xr:uid="{5C0ED2D9-661B-447B-9468-D168B26BA2A9}"/>
+    <hyperlink ref="C14" r:id="rId11" display="mailto:RUCHITHA.B.S@CAPGEMINI.COM" xr:uid="{9457DEBD-8C39-4428-9632-BBD4543E1C92}"/>
+    <hyperlink ref="C15" r:id="rId12" display="mailto:NISHA.WAGH@CAPGEMINI.COM" xr:uid="{90656272-7419-41DB-916E-77A4BEF11BF3}"/>
+    <hyperlink ref="C16" r:id="rId13" display="mailto:ANUSHA.P-NAKOD@CAPGEMINI.COM" xr:uid="{A0CD20D5-2CCF-4C97-B0F5-ABB3ED065E71}"/>
+    <hyperlink ref="C17" r:id="rId14" display="mailto:MADHU.S-CHOUDHARY@CAPGEMINI.COM" xr:uid="{C4C1D089-2F8C-4CEA-818A-F38D036C7A09}"/>
+    <hyperlink ref="C18" r:id="rId15" display="mailto:SHUBHANGI.S-EKBOTE@CAPGEMINI.COM" xr:uid="{223C1F3F-E4C1-4C11-8979-0C7CD3459D15}"/>
+    <hyperlink ref="C19" r:id="rId16" display="mailto:NIKITA-IRANNA.RAMDURG@CAPGEMINI.COM" xr:uid="{E530097C-0A97-4C83-BDB1-ECD6241C0E41}"/>
+    <hyperlink ref="C20" r:id="rId17" display="mailto:SUSHMITA.NAGARALLI@CAPGEMINI.COM" xr:uid="{BEA36D34-67BC-4A63-8920-11BB9BFE1AA9}"/>
+    <hyperlink ref="C21" r:id="rId18" display="mailto:POOJA.HUBLI@CAPGEMINI.COM" xr:uid="{1DAC9876-86E9-46DF-8B42-DFCD23BB6C16}"/>
+    <hyperlink ref="C22" r:id="rId19" display="mailto:MONISHA.L.S@CAPGEMINI.COM" xr:uid="{CAA5F7E9-6C4E-4458-A303-57922FC6EBA0}"/>
+    <hyperlink ref="C23" r:id="rId20" display="mailto:SUREKHA.POOJARI@CAPGEMINI.COM" xr:uid="{52859D86-074D-4D4B-8126-5DEEFE986EE5}"/>
+    <hyperlink ref="C24" r:id="rId21" display="mailto:NAGASHREE.NAGASHREE@CAPGEMINI.COM" xr:uid="{8F59B1D1-56A1-4FD0-BF7A-C836A6450E8A}"/>
+    <hyperlink ref="C25" r:id="rId22" display="mailto:POORNIMA.C@CAPGEMINI.COM" xr:uid="{EC4B165D-70C8-4AFA-BF81-CB343BA06203}"/>
+    <hyperlink ref="C26" r:id="rId23" display="mailto:SOUJANYA.SHETTY@CAPGEMINI.COM" xr:uid="{BF7D7988-1AAF-49A2-8D05-977BDE5976B7}"/>
+    <hyperlink ref="C27" r:id="rId24" display="mailto:OORVI.U-DEVADIGA@CAPGEMINI.COM" xr:uid="{CE450DE2-D6F7-490B-B1D5-59E0824812FE}"/>
+    <hyperlink ref="C28" r:id="rId25" display="mailto:AISHWARYA.C.C@CAPGEMINI.COM" xr:uid="{20D81E6D-C195-47B8-95C0-4E251574F2B0}"/>
+    <hyperlink ref="C29" r:id="rId26" display="mailto:RAMITHA.RAMITHA@CAPGEMINI.COM" xr:uid="{1436FFEA-A7BE-4090-80E2-607A4F70877A}"/>
+    <hyperlink ref="C30" r:id="rId27" display="mailto:SANMATI.J-JAINAR@CAPGEMINI.COM" xr:uid="{34B56356-BE4C-46B9-A75A-16D2734F4392}"/>
+    <hyperlink ref="C31" r:id="rId28" display="mailto:JYOTHI.M-B@CAPGEMINI.COM" xr:uid="{61118725-1896-43C1-BF41-0BDB8ED4D082}"/>
+    <hyperlink ref="C32" r:id="rId29" display="mailto:NISHITHA.P-V@CAPGEMINI.COM" xr:uid="{35B246C1-4C36-4491-A2B7-2068C787CC7B}"/>
+    <hyperlink ref="C33" r:id="rId30" display="mailto:DIVYA.T-R@CAPGEMINI.COM" xr:uid="{11AE6C41-0CE0-4CAF-ACE9-B830C3016B70}"/>
+    <hyperlink ref="C34" r:id="rId31" display="mailto:RACHANA.B.SHETTY@CAPGEMINI.COM" xr:uid="{5F75B95E-850F-4DCA-BCA7-7BC6EDA6FE91}"/>
+    <hyperlink ref="C35" r:id="rId32" display="mailto:DEVAKI.DEVAKI@CAPGEMINI.COM" xr:uid="{51808347-EDBF-4354-B5C6-B09B73FC47FF}"/>
+    <hyperlink ref="C36" r:id="rId33" display="mailto:DEEKSHA.SHANABHAG@CAPGEMINI.COM" xr:uid="{E0F70BB1-62D4-4C39-918D-1669FA6AC146}"/>
+    <hyperlink ref="C37" r:id="rId34" display="mailto:AREEJA.PARWIN@CAPGEMINI.COM" xr:uid="{2C589915-8649-49DB-BE66-1C30FE790A8A}"/>
+    <hyperlink ref="C38" r:id="rId35" display="mailto:afhra-sajeetha.sajeeth-akthar@capgemini.com" xr:uid="{5D40D0C8-B2B5-4942-BE8E-92CA730EE4FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
+</worksheet>
 </file>
--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94026D-6CBF-4578-B267-F386741C2DBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E31002-E8F7-4D03-834C-CB67BA15D009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TOC" sheetId="1" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="2" r:id="rId2"/>
+    <sheet name="Performance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -392,20 +392,71 @@
     <t>16-12-2022 Afternoon</t>
   </si>
   <si>
-    <t>Handson scores</t>
-  </si>
-  <si>
     <t>17-12-2022 Morning</t>
   </si>
   <si>
     <t>17-12-2022 Evening</t>
+  </si>
+  <si>
+    <t>Sandhya V</t>
+  </si>
+  <si>
+    <t>Lakshmi Dhuleholi</t>
+  </si>
+  <si>
+    <t>Bhoomika G S</t>
+  </si>
+  <si>
+    <t>Aishwarya SM</t>
+  </si>
+  <si>
+    <t>Monisha S</t>
+  </si>
+  <si>
+    <t>Surekha Poojari</t>
+  </si>
+  <si>
+    <t>Nagashree</t>
+  </si>
+  <si>
+    <t>Poornima C</t>
+  </si>
+  <si>
+    <t>Aishwarya C</t>
+  </si>
+  <si>
+    <t>Ramitha Poojary</t>
+  </si>
+  <si>
+    <t>Jyothi MB</t>
+  </si>
+  <si>
+    <t>Nishitha P V</t>
+  </si>
+  <si>
+    <t>got errors</t>
+  </si>
+  <si>
+    <t>Divya TR</t>
+  </si>
+  <si>
+    <t>Rachana Shetty</t>
+  </si>
+  <si>
+    <t>Devaki</t>
+  </si>
+  <si>
+    <t>Deeksha Shanabhag</t>
+  </si>
+  <si>
+    <t>AREEJA PARWIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +529,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,8 +585,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -577,12 +652,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -684,6 +819,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A145A7-606F-445A-9B8A-A5B56485A5B9}">
   <dimension ref="B3:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C63"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2008,10 +2167,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="N3" s="34"/>
     </row>
@@ -3331,407 +3490,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9681E04E-9FF6-42B4-B559-E905AA141B08}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1"/>
     <row r="3" spans="2:5" ht="15" thickBot="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>44</v>
-      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39">
+        <v>5</v>
+      </c>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>46</v>
+      <c r="C5" s="39">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39">
+        <v>10</v>
+      </c>
+      <c r="E5" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="C6" s="39">
+        <v>5</v>
+      </c>
+      <c r="D6" s="39">
+        <v>10</v>
+      </c>
+      <c r="E6" s="39">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1">
-      <c r="B7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>50</v>
+      <c r="B7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="39">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39">
+        <v>10</v>
+      </c>
+      <c r="E7" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1">
-      <c r="B8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>52</v>
-      </c>
+      <c r="B8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="39">
+        <v>5</v>
+      </c>
+      <c r="D8" s="39">
+        <v>10</v>
+      </c>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1">
-      <c r="B9" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>54</v>
+      <c r="B9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="39">
+        <v>5</v>
+      </c>
+      <c r="D9" s="39">
+        <v>10</v>
+      </c>
+      <c r="E9" s="39">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>56</v>
-      </c>
+      <c r="C10" s="39">
+        <v>10</v>
+      </c>
+      <c r="D10" s="39">
+        <v>5</v>
+      </c>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1">
-      <c r="B11" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>58</v>
-      </c>
+      <c r="B11" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="39">
+        <v>5</v>
+      </c>
+      <c r="D11" s="39">
+        <v>10</v>
+      </c>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="29.4" thickBot="1">
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="39">
+        <v>8</v>
+      </c>
+      <c r="D12" s="39">
+        <v>10</v>
+      </c>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" thickBot="1">
+      <c r="B13" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>62</v>
-      </c>
+      <c r="C13" s="39">
+        <v>8</v>
+      </c>
+      <c r="D13" s="39">
+        <v>10</v>
+      </c>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="C14" s="39">
+        <v>10</v>
+      </c>
+      <c r="D14" s="39">
+        <v>10</v>
+      </c>
+      <c r="E14" s="39">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="C15" s="39">
+        <v>10</v>
+      </c>
+      <c r="D15" s="39">
+        <v>10</v>
+      </c>
+      <c r="E15" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="C16" s="39">
+        <v>8</v>
+      </c>
+      <c r="D16" s="39">
+        <v>10</v>
+      </c>
+      <c r="E16" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>70</v>
+      <c r="C17" s="39">
+        <v>8</v>
+      </c>
+      <c r="D17" s="39">
+        <v>10</v>
+      </c>
+      <c r="E17" s="39">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="29.4" thickBot="1">
-      <c r="B19" s="26" t="s">
+      <c r="C18" s="39">
+        <v>5</v>
+      </c>
+      <c r="D18" s="39">
+        <v>10</v>
+      </c>
+      <c r="E18" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15" thickBot="1">
+      <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>74</v>
+      <c r="C19" s="39">
+        <v>10</v>
+      </c>
+      <c r="D19" s="39">
+        <v>10</v>
+      </c>
+      <c r="E19" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>76</v>
-      </c>
+      <c r="C20" s="39">
+        <v>5</v>
+      </c>
+      <c r="D20" s="39">
+        <v>10</v>
+      </c>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:5" ht="15" thickBot="1">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>78</v>
-      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39">
+        <v>5</v>
+      </c>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1">
-      <c r="B22" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="B22" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="39">
+        <v>10</v>
+      </c>
+      <c r="D22" s="39">
+        <v>10</v>
+      </c>
+      <c r="E22" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1">
-      <c r="B23" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="B23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="39">
+        <v>7</v>
+      </c>
+      <c r="D23" s="39">
+        <v>10</v>
+      </c>
+      <c r="E23" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="B24" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="39">
+        <v>10</v>
+      </c>
+      <c r="D24" s="39">
+        <v>8</v>
+      </c>
+      <c r="E24" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15" thickBot="1">
-      <c r="B25" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="B25" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="39">
+        <v>10</v>
+      </c>
+      <c r="D25" s="39">
+        <v>10</v>
+      </c>
+      <c r="E25" s="39">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="C26" s="39">
+        <v>10</v>
+      </c>
+      <c r="D26" s="39">
+        <v>10</v>
+      </c>
+      <c r="E26" s="39">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
+      <c r="C27" s="39">
+        <v>10</v>
+      </c>
+      <c r="D27" s="39">
+        <v>10</v>
+      </c>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="2:5" ht="15" thickBot="1">
-      <c r="B28" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
+      <c r="B28" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="39">
+        <v>10</v>
+      </c>
+      <c r="D28" s="39">
+        <v>10</v>
+      </c>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1">
-      <c r="B29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="B29" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="39">
+        <v>10</v>
+      </c>
+      <c r="D29" s="39">
+        <v>9</v>
+      </c>
+      <c r="E29" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" thickBot="1">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>96</v>
-      </c>
+      <c r="C30" s="39">
+        <v>5</v>
+      </c>
+      <c r="D30" s="39">
+        <v>10</v>
+      </c>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1">
-      <c r="B31" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>98</v>
-      </c>
+      <c r="B31" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="2:5" ht="15" thickBot="1">
-      <c r="B32" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="B32" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="39">
+        <v>10</v>
+      </c>
+      <c r="E32" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15" thickBot="1">
-      <c r="B33" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="B33" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="39">
+        <v>10</v>
+      </c>
+      <c r="D33" s="39">
+        <v>10</v>
+      </c>
+      <c r="E33" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1">
-      <c r="B34" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
+      <c r="B34" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="39">
+        <v>10</v>
+      </c>
+      <c r="D34" s="39">
+        <v>9</v>
+      </c>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="2:5" ht="15" thickBot="1">
-      <c r="B35" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="B35" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="39">
+        <v>10</v>
+      </c>
+      <c r="D35" s="39">
+        <v>10</v>
+      </c>
+      <c r="E35" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" thickBot="1">
-      <c r="B36" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="B36" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="39">
+        <v>5</v>
+      </c>
+      <c r="D36" s="39">
+        <v>10</v>
+      </c>
+      <c r="E36" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" thickBot="1">
-      <c r="B37" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="29.4" thickBot="1">
-      <c r="B38" s="8" t="s">
+      <c r="B37" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" thickBot="1">
+      <c r="B38" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>112</v>
-      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="mailto:PRIYANKA.A.V@CAPGEMINI.COM" xr:uid="{8C15E1F0-B71E-4F89-AE40-5D0BC0735170}"/>
-    <hyperlink ref="C5" r:id="rId2" display="mailto:SRIKEERTHI.M-K@CAPGEMINI.COM" xr:uid="{36B632B1-D2F2-4873-B811-1004D483EFA1}"/>
-    <hyperlink ref="C6" r:id="rId3" display="mailto:LAVANYA.B.J@CAPGEMINI.COM" xr:uid="{F4F48A0F-9E34-4DDF-9ECB-D175B526E8EB}"/>
-    <hyperlink ref="C7" r:id="rId4" display="mailto:SANDHYA.A.V@CAPGEMINI.COM" xr:uid="{8E97B524-E0B1-435D-AF6C-20340BA53472}"/>
-    <hyperlink ref="C8" r:id="rId5" display="mailto:LAKSHMI.DHULEHOLI@CAPGEMINI.COM" xr:uid="{B7C83244-CE61-4DEE-86DD-F91B38EC56C3}"/>
-    <hyperlink ref="C9" r:id="rId6" display="mailto:BHOOMIKA.G-S@CAPGEMINI.COM" xr:uid="{AD1C15E6-4A0C-4286-B7C7-A2B5763ACA33}"/>
-    <hyperlink ref="C10" r:id="rId7" display="mailto:SUSHMITHA.B-IRANI@CAPGEMINI.COM" xr:uid="{6DCC08D4-6F8F-4983-A6B0-4B2F494DB602}"/>
-    <hyperlink ref="C11" r:id="rId8" display="mailto:AISHWARYA.S-M@CAPGEMINI.COM" xr:uid="{1D629D4A-C4DD-47B0-A821-8200BED22F7D}"/>
-    <hyperlink ref="C12" r:id="rId9" display="mailto:KAVERI.B-S@CAPGEMINI.COM" xr:uid="{62EF209A-510A-48BF-87A9-59331864F948}"/>
-    <hyperlink ref="C13" r:id="rId10" display="mailto:AMULYA.ARVIND-PURUSHAN@CAPGEMINI.COM" xr:uid="{5C0ED2D9-661B-447B-9468-D168B26BA2A9}"/>
-    <hyperlink ref="C14" r:id="rId11" display="mailto:RUCHITHA.B.S@CAPGEMINI.COM" xr:uid="{9457DEBD-8C39-4428-9632-BBD4543E1C92}"/>
-    <hyperlink ref="C15" r:id="rId12" display="mailto:NISHA.WAGH@CAPGEMINI.COM" xr:uid="{90656272-7419-41DB-916E-77A4BEF11BF3}"/>
-    <hyperlink ref="C16" r:id="rId13" display="mailto:ANUSHA.P-NAKOD@CAPGEMINI.COM" xr:uid="{A0CD20D5-2CCF-4C97-B0F5-ABB3ED065E71}"/>
-    <hyperlink ref="C17" r:id="rId14" display="mailto:MADHU.S-CHOUDHARY@CAPGEMINI.COM" xr:uid="{C4C1D089-2F8C-4CEA-818A-F38D036C7A09}"/>
-    <hyperlink ref="C18" r:id="rId15" display="mailto:SHUBHANGI.S-EKBOTE@CAPGEMINI.COM" xr:uid="{223C1F3F-E4C1-4C11-8979-0C7CD3459D15}"/>
-    <hyperlink ref="C19" r:id="rId16" display="mailto:NIKITA-IRANNA.RAMDURG@CAPGEMINI.COM" xr:uid="{E530097C-0A97-4C83-BDB1-ECD6241C0E41}"/>
-    <hyperlink ref="C20" r:id="rId17" display="mailto:SUSHMITA.NAGARALLI@CAPGEMINI.COM" xr:uid="{BEA36D34-67BC-4A63-8920-11BB9BFE1AA9}"/>
-    <hyperlink ref="C21" r:id="rId18" display="mailto:POOJA.HUBLI@CAPGEMINI.COM" xr:uid="{1DAC9876-86E9-46DF-8B42-DFCD23BB6C16}"/>
-    <hyperlink ref="C22" r:id="rId19" display="mailto:MONISHA.L.S@CAPGEMINI.COM" xr:uid="{CAA5F7E9-6C4E-4458-A303-57922FC6EBA0}"/>
-    <hyperlink ref="C23" r:id="rId20" display="mailto:SUREKHA.POOJARI@CAPGEMINI.COM" xr:uid="{52859D86-074D-4D4B-8126-5DEEFE986EE5}"/>
-    <hyperlink ref="C24" r:id="rId21" display="mailto:NAGASHREE.NAGASHREE@CAPGEMINI.COM" xr:uid="{8F59B1D1-56A1-4FD0-BF7A-C836A6450E8A}"/>
-    <hyperlink ref="C25" r:id="rId22" display="mailto:POORNIMA.C@CAPGEMINI.COM" xr:uid="{EC4B165D-70C8-4AFA-BF81-CB343BA06203}"/>
-    <hyperlink ref="C26" r:id="rId23" display="mailto:SOUJANYA.SHETTY@CAPGEMINI.COM" xr:uid="{BF7D7988-1AAF-49A2-8D05-977BDE5976B7}"/>
-    <hyperlink ref="C27" r:id="rId24" display="mailto:OORVI.U-DEVADIGA@CAPGEMINI.COM" xr:uid="{CE450DE2-D6F7-490B-B1D5-59E0824812FE}"/>
-    <hyperlink ref="C28" r:id="rId25" display="mailto:AISHWARYA.C.C@CAPGEMINI.COM" xr:uid="{20D81E6D-C195-47B8-95C0-4E251574F2B0}"/>
-    <hyperlink ref="C29" r:id="rId26" display="mailto:RAMITHA.RAMITHA@CAPGEMINI.COM" xr:uid="{1436FFEA-A7BE-4090-80E2-607A4F70877A}"/>
-    <hyperlink ref="C30" r:id="rId27" display="mailto:SANMATI.J-JAINAR@CAPGEMINI.COM" xr:uid="{34B56356-BE4C-46B9-A75A-16D2734F4392}"/>
-    <hyperlink ref="C31" r:id="rId28" display="mailto:JYOTHI.M-B@CAPGEMINI.COM" xr:uid="{61118725-1896-43C1-BF41-0BDB8ED4D082}"/>
-    <hyperlink ref="C32" r:id="rId29" display="mailto:NISHITHA.P-V@CAPGEMINI.COM" xr:uid="{35B246C1-4C36-4491-A2B7-2068C787CC7B}"/>
-    <hyperlink ref="C33" r:id="rId30" display="mailto:DIVYA.T-R@CAPGEMINI.COM" xr:uid="{11AE6C41-0CE0-4CAF-ACE9-B830C3016B70}"/>
-    <hyperlink ref="C34" r:id="rId31" display="mailto:RACHANA.B.SHETTY@CAPGEMINI.COM" xr:uid="{5F75B95E-850F-4DCA-BCA7-7BC6EDA6FE91}"/>
-    <hyperlink ref="C35" r:id="rId32" display="mailto:DEVAKI.DEVAKI@CAPGEMINI.COM" xr:uid="{51808347-EDBF-4354-B5C6-B09B73FC47FF}"/>
-    <hyperlink ref="C36" r:id="rId33" display="mailto:DEEKSHA.SHANABHAG@CAPGEMINI.COM" xr:uid="{E0F70BB1-62D4-4C39-918D-1669FA6AC146}"/>
-    <hyperlink ref="C37" r:id="rId34" display="mailto:AREEJA.PARWIN@CAPGEMINI.COM" xr:uid="{2C589915-8649-49DB-BE66-1C30FE790A8A}"/>
-    <hyperlink ref="C38" r:id="rId35" display="mailto:afhra-sajeetha.sajeeth-akthar@capgemini.com" xr:uid="{5D40D0C8-B2B5-4942-BE8E-92CA730EE4FD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E31002-E8F7-4D03-834C-CB67BA15D009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E155C14A-E1E1-474B-93BE-7A81B4089EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="143">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>AREEJA PARWIN</t>
+  </si>
+  <si>
+    <t>19-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>19-12-2022 Evening</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A145A7-606F-445A-9B8A-A5B56485A5B9}">
   <dimension ref="B3:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2121,21 +2127,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="11" customWidth="1"/>
+    <col min="4" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" thickBot="1"/>
-    <row r="3" spans="2:14" s="27" customFormat="1" ht="29.4" thickBot="1">
+    <row r="2" spans="2:15" ht="15" thickBot="1"/>
+    <row r="3" spans="2:15" s="27" customFormat="1" ht="29.4" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -2172,9 +2182,14 @@
       <c r="M3" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1">
+      <c r="N3" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -2211,8 +2226,14 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2270,14 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2287,8 +2314,14 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2325,8 +2358,14 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2363,8 +2402,14 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2401,8 +2446,14 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2439,8 +2490,14 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2477,8 +2534,14 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2515,8 +2578,14 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2553,8 +2622,14 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2591,8 +2666,14 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2629,8 +2710,14 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -2667,8 +2754,14 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="15" thickBot="1">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2705,8 +2798,14 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2743,8 +2842,14 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" ht="15" thickBot="1">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2781,8 +2886,14 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="15" thickBot="1">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2819,8 +2930,14 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="15" thickBot="1">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2857,8 +2974,14 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" ht="15" thickBot="1">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -2895,8 +3018,14 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" ht="15" thickBot="1">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -2933,8 +3062,14 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="15" thickBot="1">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -2971,8 +3106,14 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3150,14 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" ht="15" thickBot="1">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3047,8 +3194,14 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" ht="15" thickBot="1">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3085,8 +3238,14 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="15" thickBot="1">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3123,8 +3282,14 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" ht="15" thickBot="1">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3161,8 +3326,14 @@
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" ht="15" thickBot="1">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3199,8 +3370,14 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" ht="15" thickBot="1">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3237,8 +3414,14 @@
       <c r="M31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" ht="15" thickBot="1">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -3275,8 +3458,14 @@
       <c r="M32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="15" thickBot="1">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -3313,8 +3502,14 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" ht="15" thickBot="1">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -3351,8 +3546,14 @@
       <c r="M34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="15" thickBot="1">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -3389,8 +3590,14 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" ht="15" thickBot="1">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -3427,8 +3634,14 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" ht="15" thickBot="1">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -3436,7 +3649,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15" thickBot="1">
+    <row r="38" spans="2:15" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E155C14A-E1E1-474B-93BE-7A81B4089EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B674B4A-9495-4647-8984-8CF03990C85C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="145">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>19-12-2022 Evening</t>
+  </si>
+  <si>
+    <t>21-dec-2022 Morning</t>
+  </si>
+  <si>
+    <t>21-dec-2022 Afternoon</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A145A7-606F-445A-9B8A-A5B56485A5B9}">
   <dimension ref="B3:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2127,9 +2133,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:O38"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
@@ -2141,11 +2147,11 @@
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="11" customWidth="1"/>
+    <col min="4" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" thickBot="1"/>
-    <row r="3" spans="2:15" s="27" customFormat="1" ht="29.4" thickBot="1">
+    <row r="2" spans="2:17" ht="15" thickBot="1"/>
+    <row r="3" spans="2:17" s="27" customFormat="1" ht="43.8" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -2188,8 +2194,14 @@
       <c r="O3" s="34" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+      <c r="P3" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -2232,8 +2244,11 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1">
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -2276,8 +2291,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2320,8 +2338,11 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2364,8 +2385,11 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2408,8 +2432,11 @@
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2452,8 +2479,11 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2496,8 +2526,11 @@
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2540,8 +2573,11 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2584,8 +2620,11 @@
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2628,8 +2667,11 @@
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" ht="15" thickBot="1">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2672,8 +2714,11 @@
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2716,8 +2761,11 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="15" thickBot="1">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -2760,8 +2808,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2804,8 +2855,11 @@
       <c r="O17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2848,8 +2902,11 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +2949,11 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2936,8 +2996,11 @@
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2980,8 +3043,11 @@
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" ht="15" thickBot="1">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3024,8 +3090,11 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" ht="15" thickBot="1">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3068,8 +3137,11 @@
       <c r="O23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" ht="15" thickBot="1">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3112,8 +3184,11 @@
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" ht="15" thickBot="1">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3156,8 +3231,11 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3200,8 +3278,11 @@
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" ht="15" thickBot="1">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3244,8 +3325,11 @@
       <c r="O27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" ht="15" thickBot="1">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3288,8 +3372,11 @@
       <c r="O28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" ht="15" thickBot="1">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3332,8 +3419,11 @@
       <c r="O29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" ht="15" thickBot="1">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3376,8 +3466,11 @@
       <c r="O30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3420,8 +3513,11 @@
       <c r="O31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1">
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -3464,8 +3560,11 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1">
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -3508,8 +3607,11 @@
       <c r="O33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -3552,8 +3654,11 @@
       <c r="O34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" ht="15" thickBot="1">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -3596,8 +3701,11 @@
       <c r="O35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" ht="15" thickBot="1">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -3640,8 +3748,11 @@
       <c r="O36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" ht="15" thickBot="1">
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -3649,7 +3760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="15" thickBot="1">
+    <row r="38" spans="2:16" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B674B4A-9495-4647-8984-8CF03990C85C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A8EF6-71C9-4371-AF95-37B4B22BCA9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="146">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>21-dec-2022 Afternoon</t>
+  </si>
+  <si>
+    <t>22-12-2022 Morning</t>
   </si>
 </sst>
 </file>
@@ -2133,25 +2136,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:Q38"/>
+  <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="11" customWidth="1"/>
+    <col min="4" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" thickBot="1"/>
-    <row r="3" spans="2:17" s="27" customFormat="1" ht="43.8" thickBot="1">
+    <row r="2" spans="2:19" ht="15" thickBot="1"/>
+    <row r="3" spans="2:19" s="27" customFormat="1" ht="43.8" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -2200,8 +2203,12 @@
       <c r="Q3" s="34" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1">
+      <c r="R3" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -2247,8 +2254,14 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -2294,8 +2307,14 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2341,8 +2360,14 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="15" thickBot="1">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2388,8 +2413,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2435,8 +2466,14 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" ht="15" thickBot="1">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2482,8 +2519,14 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2529,8 +2572,14 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2576,8 +2625,14 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2623,8 +2678,14 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2670,8 +2731,14 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2717,8 +2784,14 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2764,8 +2837,14 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -2811,8 +2890,14 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2858,8 +2943,14 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2905,8 +2996,14 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -2952,8 +3049,14 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -2999,8 +3102,14 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -3046,8 +3155,14 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3093,8 +3208,14 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3140,8 +3261,14 @@
       <c r="P23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3187,8 +3314,14 @@
       <c r="P24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" ht="15" thickBot="1">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3234,8 +3367,14 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3281,8 +3420,14 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3328,8 +3473,14 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3375,8 +3526,14 @@
       <c r="P28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3422,8 +3579,14 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3469,8 +3632,14 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" ht="15" thickBot="1">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3516,8 +3685,14 @@
       <c r="P31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -3563,8 +3738,14 @@
       <c r="P32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" ht="15" thickBot="1">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -3610,8 +3791,14 @@
       <c r="P33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" ht="15" thickBot="1">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -3657,8 +3844,14 @@
       <c r="P34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="15" thickBot="1">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -3704,8 +3897,14 @@
       <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" ht="15" thickBot="1">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -3751,8 +3950,14 @@
       <c r="P36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" ht="15" thickBot="1">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -3760,7 +3965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="15" thickBot="1">
+    <row r="38" spans="2:18" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A8EF6-71C9-4371-AF95-37B4B22BCA9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586B49F-3EE7-4A59-A89C-306CA2084232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>22-12-2022 Morning</t>
+  </si>
+  <si>
+    <t>22-12-2022 Evening</t>
   </si>
 </sst>
 </file>
@@ -2139,11 +2142,11 @@
   <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
@@ -2206,7 +2209,9 @@
       <c r="R3" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="S3" s="34"/>
+      <c r="S3" s="34" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="4" spans="2:19" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
@@ -2260,6 +2265,9 @@
       <c r="R4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -2313,6 +2321,9 @@
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:19" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
@@ -2366,6 +2377,9 @@
       <c r="R6">
         <v>1</v>
       </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:19" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
@@ -2419,6 +2433,9 @@
       <c r="R7">
         <v>1</v>
       </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:19" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
@@ -2472,6 +2489,9 @@
       <c r="R8">
         <v>1</v>
       </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
@@ -2525,6 +2545,9 @@
       <c r="R9">
         <v>1</v>
       </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
@@ -2578,6 +2601,9 @@
       <c r="R10">
         <v>1</v>
       </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
@@ -2631,6 +2657,9 @@
       <c r="R11">
         <v>1</v>
       </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
@@ -2684,6 +2713,9 @@
       <c r="R12">
         <v>1</v>
       </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:19" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
@@ -2737,6 +2769,9 @@
       <c r="R13">
         <v>1</v>
       </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:19" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
@@ -2790,6 +2825,9 @@
       <c r="R14">
         <v>1</v>
       </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:19" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
@@ -2843,6 +2881,9 @@
       <c r="R15">
         <v>1</v>
       </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:19" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
@@ -2896,8 +2937,11 @@
       <c r="R16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" ht="15" thickBot="1">
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2949,8 +2993,11 @@
       <c r="R17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" ht="15" thickBot="1">
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3002,8 +3049,11 @@
       <c r="R18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" ht="15" thickBot="1">
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -3055,8 +3105,11 @@
       <c r="R19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" ht="15" thickBot="1">
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -3108,8 +3161,11 @@
       <c r="R20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" ht="15" thickBot="1">
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -3161,8 +3217,11 @@
       <c r="R21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" ht="15" thickBot="1">
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3214,8 +3273,11 @@
       <c r="R22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" ht="15" thickBot="1">
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3267,8 +3329,11 @@
       <c r="R23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" ht="15" thickBot="1">
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3320,8 +3385,11 @@
       <c r="R24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" ht="15" thickBot="1">
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3373,8 +3441,11 @@
       <c r="R25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" ht="15" thickBot="1">
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3426,8 +3497,11 @@
       <c r="R26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" ht="15" thickBot="1">
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3479,8 +3553,11 @@
       <c r="R27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" ht="15" thickBot="1">
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3532,8 +3609,11 @@
       <c r="R28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" ht="15" thickBot="1">
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3585,8 +3665,11 @@
       <c r="R29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1">
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3638,8 +3721,11 @@
       <c r="R30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" ht="15" thickBot="1">
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3691,8 +3777,11 @@
       <c r="R31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" ht="15" thickBot="1">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -3744,8 +3833,11 @@
       <c r="R32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" ht="15" thickBot="1">
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -3797,8 +3889,11 @@
       <c r="R33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" ht="15" thickBot="1">
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -3850,8 +3945,11 @@
       <c r="R34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" ht="15" thickBot="1">
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -3903,8 +4001,11 @@
       <c r="R35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" ht="15" thickBot="1">
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -3956,8 +4057,11 @@
       <c r="R36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" ht="15" thickBot="1">
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -3965,7 +4069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="15" thickBot="1">
+    <row r="38" spans="2:19" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586B49F-3EE7-4A59-A89C-306CA2084232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C992E-616E-40EE-8E04-BF205D19DCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>22-12-2022 Evening</t>
+  </si>
+  <si>
+    <t>23-dec-2022 Morning</t>
   </si>
 </sst>
 </file>
@@ -2139,25 +2142,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:S38"/>
+  <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="11" customWidth="1"/>
+    <col min="4" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" thickBot="1"/>
-    <row r="3" spans="2:19" s="27" customFormat="1" ht="43.8" thickBot="1">
+    <row r="2" spans="2:21" ht="15" thickBot="1"/>
+    <row r="3" spans="2:21" s="27" customFormat="1" ht="43.8" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -2212,8 +2215,12 @@
       <c r="S3" s="34" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="15" thickBot="1">
+      <c r="T3" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" s="34"/>
+    </row>
+    <row r="4" spans="2:21" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -2268,8 +2275,11 @@
       <c r="S4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1">
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -2324,8 +2334,11 @@
       <c r="S5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" ht="15" thickBot="1">
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2380,8 +2393,11 @@
       <c r="S6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1">
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2436,8 +2452,11 @@
       <c r="S7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" ht="15" thickBot="1">
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2492,8 +2511,11 @@
       <c r="S8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" ht="15" thickBot="1">
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2548,8 +2570,11 @@
       <c r="S9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" ht="15" thickBot="1">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2604,8 +2629,11 @@
       <c r="S10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1">
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2660,8 +2688,11 @@
       <c r="S11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" ht="15" thickBot="1">
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2716,8 +2747,11 @@
       <c r="S12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" ht="15" thickBot="1">
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2772,8 +2806,11 @@
       <c r="S13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1">
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2828,8 +2865,11 @@
       <c r="S14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" ht="15" thickBot="1">
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2884,8 +2924,11 @@
       <c r="S15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1">
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -2940,8 +2983,11 @@
       <c r="S16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" ht="15" thickBot="1">
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -2996,8 +3042,11 @@
       <c r="S17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" ht="15" thickBot="1">
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3052,8 +3101,11 @@
       <c r="S18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" ht="15" thickBot="1">
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -3108,8 +3160,11 @@
       <c r="S19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" ht="15" thickBot="1">
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -3164,8 +3219,11 @@
       <c r="S20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" ht="15" thickBot="1">
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -3220,8 +3278,11 @@
       <c r="S21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1">
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3276,8 +3337,11 @@
       <c r="S22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" ht="15" thickBot="1">
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3332,8 +3396,11 @@
       <c r="S23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" ht="15" thickBot="1">
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3388,8 +3455,11 @@
       <c r="S24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" ht="15" thickBot="1">
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3444,8 +3514,11 @@
       <c r="S25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" ht="15" thickBot="1">
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3500,8 +3573,11 @@
       <c r="S26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" ht="15" thickBot="1">
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3556,8 +3632,11 @@
       <c r="S27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1">
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3612,8 +3691,11 @@
       <c r="S28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" ht="15" thickBot="1">
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3668,8 +3750,11 @@
       <c r="S29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" ht="15" thickBot="1">
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3724,8 +3809,11 @@
       <c r="S30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" ht="15" thickBot="1">
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3780,8 +3868,11 @@
       <c r="S31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" ht="15" thickBot="1">
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -3836,8 +3927,11 @@
       <c r="S32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" ht="15" thickBot="1">
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -3892,8 +3986,11 @@
       <c r="S33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" ht="15" thickBot="1">
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -3948,8 +4045,11 @@
       <c r="S34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" ht="15" thickBot="1">
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -4004,8 +4104,11 @@
       <c r="S35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" ht="15" thickBot="1">
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -4060,8 +4163,11 @@
       <c r="S36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" ht="15" thickBot="1">
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -4069,7 +4175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="15" thickBot="1">
+    <row r="38" spans="2:20" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C992E-616E-40EE-8E04-BF205D19DCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1FE48-C962-4224-8AB5-455826DA4A3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="149">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>23-dec-2022 Morning</t>
+  </si>
+  <si>
+    <t>23-dec-2022 Afternoon</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2152,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
@@ -2218,7 +2221,9 @@
       <c r="T3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="U3" s="34"/>
+      <c r="U3" s="34" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="2:21" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
@@ -2278,6 +2283,9 @@
       <c r="T4">
         <v>1</v>
       </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -2337,6 +2345,9 @@
       <c r="T5">
         <v>1</v>
       </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:21" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
@@ -2396,6 +2407,9 @@
       <c r="T6">
         <v>1</v>
       </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:21" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
@@ -2455,6 +2469,9 @@
       <c r="T7">
         <v>1</v>
       </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:21" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
@@ -2514,6 +2531,9 @@
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
@@ -2573,6 +2593,9 @@
       <c r="T9">
         <v>1</v>
       </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
@@ -2632,6 +2655,9 @@
       <c r="T10">
         <v>1</v>
       </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
@@ -2691,6 +2717,9 @@
       <c r="T11">
         <v>1</v>
       </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:21" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
@@ -2750,6 +2779,9 @@
       <c r="T12">
         <v>1</v>
       </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:21" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
@@ -2809,6 +2841,9 @@
       <c r="T13">
         <v>1</v>
       </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:21" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
@@ -2868,6 +2903,9 @@
       <c r="T14">
         <v>1</v>
       </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:21" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
@@ -2927,6 +2965,9 @@
       <c r="T15">
         <v>1</v>
       </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:21" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
@@ -2986,8 +3027,11 @@
       <c r="T16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" ht="15" thickBot="1">
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -3045,8 +3089,11 @@
       <c r="T17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="15" thickBot="1">
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3104,8 +3151,11 @@
       <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1">
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -3163,8 +3213,11 @@
       <c r="T19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" ht="15" thickBot="1">
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -3222,8 +3275,11 @@
       <c r="T20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" ht="15" thickBot="1">
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -3281,8 +3337,11 @@
       <c r="T21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" ht="15" thickBot="1">
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3340,8 +3399,11 @@
       <c r="T22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="15" thickBot="1">
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3399,8 +3461,11 @@
       <c r="T23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" ht="15" thickBot="1">
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3458,8 +3523,11 @@
       <c r="T24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" ht="15" thickBot="1">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3517,8 +3585,11 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" ht="15" thickBot="1">
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3576,8 +3647,11 @@
       <c r="T26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" ht="15" thickBot="1">
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3635,8 +3709,11 @@
       <c r="T27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" ht="15" thickBot="1">
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3694,8 +3771,11 @@
       <c r="T28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" ht="15" thickBot="1">
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3753,8 +3833,11 @@
       <c r="T29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" ht="15" thickBot="1">
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3812,8 +3895,11 @@
       <c r="T30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" ht="15" thickBot="1">
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3871,8 +3957,11 @@
       <c r="T31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" ht="15" thickBot="1">
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -3930,8 +4019,11 @@
       <c r="T32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" ht="15" thickBot="1">
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -3989,8 +4081,11 @@
       <c r="T33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" ht="15" thickBot="1">
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -4048,8 +4143,11 @@
       <c r="T34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" ht="15" thickBot="1">
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -4107,8 +4205,11 @@
       <c r="T35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" ht="15" thickBot="1">
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -4166,8 +4267,11 @@
       <c r="T36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" ht="15" thickBot="1">
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -4175,7 +4279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="15" thickBot="1">
+    <row r="38" spans="2:21" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1FE48-C962-4224-8AB5-455826DA4A3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BFF762-5D1D-4EA1-B760-BFE7B6DB4B42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>Digital CRM SFDC Dec 1st Batch</t>
   </si>
@@ -474,6 +474,15 @@
   </si>
   <si>
     <t>23-dec-2022 Afternoon</t>
+  </si>
+  <si>
+    <t>26-dec-2022 Morning</t>
+  </si>
+  <si>
+    <t>26-dec-2022 Afternoon</t>
+  </si>
+  <si>
+    <t>27-dec-2022 Morning</t>
   </si>
 </sst>
 </file>
@@ -1186,9 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A145A7-606F-445A-9B8A-A5B56485A5B9}">
   <dimension ref="B3:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2145,25 +2152,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:U38"/>
+  <dimension ref="B2:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="11" customWidth="1"/>
+    <col min="4" max="24" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15" thickBot="1"/>
-    <row r="3" spans="2:21" s="27" customFormat="1" ht="43.8" thickBot="1">
+    <row r="2" spans="2:24" ht="15" thickBot="1"/>
+    <row r="3" spans="2:24" s="27" customFormat="1" ht="43.8" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -2224,8 +2231,17 @@
       <c r="U3" s="34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" ht="15" thickBot="1">
+      <c r="V3" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2302,17 @@
       <c r="U4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" ht="15" thickBot="1">
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -2348,8 +2373,17 @@
       <c r="U5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" ht="15" thickBot="1">
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2410,8 +2444,17 @@
       <c r="U6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2472,8 +2515,17 @@
       <c r="U7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" ht="15" thickBot="1">
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2534,8 +2586,17 @@
       <c r="U8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2596,8 +2657,17 @@
       <c r="U9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1">
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2658,8 +2728,17 @@
       <c r="U10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2720,8 +2799,17 @@
       <c r="U11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" ht="15" thickBot="1">
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2782,8 +2870,17 @@
       <c r="U12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:21" ht="15" thickBot="1">
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2844,8 +2941,17 @@
       <c r="U13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" ht="15" thickBot="1">
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -2906,8 +3012,17 @@
       <c r="U14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" ht="15" thickBot="1">
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -2968,8 +3083,17 @@
       <c r="U15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:21" ht="15" thickBot="1">
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -3030,8 +3154,17 @@
       <c r="U16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" ht="15" thickBot="1">
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -3092,8 +3225,17 @@
       <c r="U17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" ht="15" thickBot="1">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3154,8 +3296,17 @@
       <c r="U18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" ht="15" thickBot="1">
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -3216,8 +3367,17 @@
       <c r="U19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" ht="15" thickBot="1">
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -3278,8 +3438,17 @@
       <c r="U20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" ht="15" thickBot="1">
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -3340,8 +3509,17 @@
       <c r="U21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" ht="15" thickBot="1">
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3402,8 +3580,17 @@
       <c r="U22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" ht="15" thickBot="1">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3464,8 +3651,17 @@
       <c r="U23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" ht="15" thickBot="1">
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3526,8 +3722,17 @@
       <c r="U24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" ht="15" thickBot="1">
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3588,8 +3793,17 @@
       <c r="U25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" ht="15" thickBot="1">
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3650,8 +3864,17 @@
       <c r="U26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1">
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3712,8 +3935,17 @@
       <c r="U27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" ht="15" thickBot="1">
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -3774,8 +4006,17 @@
       <c r="U28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" ht="15" thickBot="1">
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -3836,8 +4077,17 @@
       <c r="U29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" ht="15" thickBot="1">
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -3898,8 +4148,17 @@
       <c r="U30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" ht="15" thickBot="1">
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -3960,8 +4219,17 @@
       <c r="U31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" ht="15" thickBot="1">
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -4022,8 +4290,17 @@
       <c r="U32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" ht="15" thickBot="1">
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -4084,8 +4361,17 @@
       <c r="U33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" ht="15" thickBot="1">
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -4146,8 +4432,17 @@
       <c r="U34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" ht="15" thickBot="1">
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -4208,8 +4503,17 @@
       <c r="U35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" ht="15" thickBot="1">
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -4270,8 +4574,17 @@
       <c r="U36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" ht="15" thickBot="1">
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -4279,7 +4592,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="15" thickBot="1">
+    <row r="38" spans="2:24" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>

--- a/dec1.xlsx
+++ b/dec1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Capgemini\Dec1stBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BFF762-5D1D-4EA1-B760-BFE7B6DB4B42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315276D-5A83-4EEF-B6D0-033974887DDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{E9380DA9-9937-4532-BDD1-63719870BCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -434,9 +434,6 @@
     <t>Nishitha P V</t>
   </si>
   <si>
-    <t>got errors</t>
-  </si>
-  <si>
     <t>Divya TR</t>
   </si>
   <si>
@@ -483,13 +480,16 @@
   </si>
   <si>
     <t>27-dec-2022 Morning</t>
+  </si>
+  <si>
+    <t>27-dec-2022 Evening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,17 +571,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,12 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -869,13 +857,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2152,25 +2137,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587BBC1-328C-4335-BA17-68B65FE98C2F}">
-  <dimension ref="B2:X38"/>
+  <dimension ref="B2:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="11" customWidth="1"/>
+    <col min="4" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1"/>
-    <row r="3" spans="2:24" s="27" customFormat="1" ht="43.8" thickBot="1">
+    <row r="2" spans="2:25" ht="15" thickBot="1"/>
+    <row r="3" spans="2:25" s="27" customFormat="1" ht="43.8" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
@@ -2208,40 +2193,43 @@
         <v>122</v>
       </c>
       <c r="N3" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="U3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="V3" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="W3" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="Y3" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="15" thickBot="1">
+    <row r="4" spans="2:25" ht="15" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>43</v>
       </c>
@@ -2311,8 +2299,11 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" ht="15" thickBot="1">
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="15" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -2382,8 +2373,11 @@
       <c r="X5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" ht="15" thickBot="1">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15" thickBot="1">
       <c r="B6" s="26" t="s">
         <v>47</v>
       </c>
@@ -2453,8 +2447,11 @@
       <c r="X6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" ht="15" thickBot="1">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="15" thickBot="1">
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -2524,8 +2521,11 @@
       <c r="X7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" ht="15" thickBot="1">
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
@@ -2595,8 +2595,11 @@
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" ht="15" thickBot="1">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="15" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>53</v>
       </c>
@@ -2666,8 +2669,11 @@
       <c r="X9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" ht="15" thickBot="1">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="15" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
@@ -2737,8 +2743,11 @@
       <c r="X10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" ht="15" thickBot="1">
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="15" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
@@ -2808,8 +2817,11 @@
       <c r="X11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" ht="15" thickBot="1">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -2879,8 +2891,11 @@
       <c r="X12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" ht="15" thickBot="1">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="15" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -2950,8 +2965,11 @@
       <c r="X13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" ht="15" thickBot="1">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="15" thickBot="1">
       <c r="B14" s="26" t="s">
         <v>63</v>
       </c>
@@ -3021,8 +3039,11 @@
       <c r="X14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" ht="15" thickBot="1">
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="15" thickBot="1">
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -3092,8 +3113,11 @@
       <c r="X15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" ht="15" thickBot="1">
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="15" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -3163,8 +3187,11 @@
       <c r="X16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" ht="15" thickBot="1">
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="15" thickBot="1">
       <c r="B17" s="26" t="s">
         <v>69</v>
       </c>
@@ -3234,8 +3261,11 @@
       <c r="X17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" ht="15" thickBot="1">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="15" thickBot="1">
       <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3305,8 +3335,11 @@
       <c r="X18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" ht="15" thickBot="1">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="15" thickBot="1">
       <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
@@ -3376,8 +3409,11 @@
       <c r="X19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" ht="15" thickBot="1">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="15" thickBot="1">
       <c r="B20" s="26" t="s">
         <v>75</v>
       </c>
@@ -3447,8 +3483,11 @@
       <c r="X20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" ht="15" thickBot="1">
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="15" thickBot="1">
       <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
@@ -3518,8 +3557,11 @@
       <c r="X21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" ht="15" thickBot="1">
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="15" thickBot="1">
       <c r="B22" s="26" t="s">
         <v>79</v>
       </c>
@@ -3589,8 +3631,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" ht="15" thickBot="1">
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
         <v>81</v>
       </c>
@@ -3660,8 +3705,11 @@
       <c r="X23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" ht="15" thickBot="1">
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="15" thickBot="1">
       <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
@@ -3731,8 +3779,11 @@
       <c r="X24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" ht="15" thickBot="1">
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="15" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>85</v>
       </c>
@@ -3802,8 +3853,11 @@
       <c r="X25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" ht="15" thickBot="1">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="15" thickBot="1">
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -3873,8 +3927,11 @@
       <c r="X26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" ht="15" thickBot="1">
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="15" thickBot="1">
       <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
@@ -3944,8 +4001,11 @@
       <c r="X27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" ht="15" thickBot="1">
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="15" thickBot="1">
       <c r="B28" s="26" t="s">
         <v>91</v>
       </c>
@@ -4015,8 +4075,11 @@
       <c r="X28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" ht="15" thickBot="1">
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="15" thickBot="1">
       <c r="B29" s="26" t="s">
         <v>93</v>
       </c>
@@ -4086,8 +4149,11 @@
       <c r="X29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" ht="15" thickBot="1">
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="15" thickBot="1">
       <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
@@ -4157,8 +4223,11 @@
       <c r="X30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" ht="15" thickBot="1">
+      <c r="Y30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
         <v>97</v>
       </c>
@@ -4228,8 +4297,11 @@
       <c r="X31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" ht="15" thickBot="1">
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="15" thickBot="1">
       <c r="B32" s="26" t="s">
         <v>99</v>
       </c>
@@ -4299,8 +4371,11 @@
       <c r="X32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" ht="15" thickBot="1">
+      <c r="Y32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="15" thickBot="1">
       <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
@@ -4370,8 +4445,11 @@
       <c r="X33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" ht="15" thickBot="1">
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="15" thickBot="1">
       <c r="B34" s="26" t="s">
         <v>103</v>
       </c>
@@ -4441,8 +4519,11 @@
       <c r="X34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" ht="15" thickBot="1">
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="15" thickBot="1">
       <c r="B35" s="26" t="s">
         <v>105</v>
       </c>
@@ -4512,8 +4593,11 @@
       <c r="X35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" ht="15" thickBot="1">
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="15" thickBot="1">
       <c r="B36" s="26" t="s">
         <v>107</v>
       </c>
@@ -4583,8 +4667,11 @@
       <c r="X36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" ht="15" thickBot="1">
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="15" thickBot="1">
       <c r="B37" s="26" t="s">
         <v>109</v>
       </c>
@@ -4592,7 +4679,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:24" ht="15" thickBot="1">
+    <row r="38" spans="2:25" ht="15" thickBot="1">
       <c r="B38" s="8" t="s">
         <v>111</v>
       </c>
@@ -4644,39 +4731,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9681E04E-9FF6-42B4-B559-E905AA141B08}">
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1"/>
-    <row r="3" spans="2:5" ht="15" thickBot="1">
+    <row r="2" spans="2:15" ht="15" thickBot="1"/>
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" thickBot="1">
       <c r="B4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="39">
+        <v>8</v>
+      </c>
       <c r="D4" s="39">
         <v>5</v>
       </c>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" thickBot="1">
+      <c r="E4" s="39">
+        <v>8</v>
+      </c>
+      <c r="F4" s="39">
+        <v>8</v>
+      </c>
+      <c r="G4" s="39">
+        <v>8</v>
+      </c>
+      <c r="H4" s="39">
+        <v>7</v>
+      </c>
+      <c r="I4" s="39">
+        <v>9</v>
+      </c>
+      <c r="J4" s="39">
+        <v>7</v>
+      </c>
+      <c r="K4" s="39">
+        <v>8</v>
+      </c>
+      <c r="L4" s="39">
+        <v>7</v>
+      </c>
+      <c r="M4" s="39">
+        <v>7</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1">
       <c r="B5" s="37" t="s">
         <v>45</v>
       </c>
@@ -4687,10 +4813,38 @@
         <v>10</v>
       </c>
       <c r="E5" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="39">
+        <v>10</v>
+      </c>
+      <c r="G5" s="39">
+        <v>7</v>
+      </c>
+      <c r="H5" s="39">
+        <v>10</v>
+      </c>
+      <c r="I5" s="39">
+        <v>10</v>
+      </c>
+      <c r="J5" s="39">
+        <v>8</v>
+      </c>
+      <c r="K5" s="39">
+        <v>6</v>
+      </c>
+      <c r="L5" s="39">
+        <v>8</v>
+      </c>
+      <c r="M5" s="39">
+        <v>9</v>
+      </c>
+      <c r="N5" s="39">
+        <v>8</v>
+      </c>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" thickBot="1">
       <c r="B6" s="37" t="s">
         <v>47</v>
       </c>
@@ -4698,13 +4852,41 @@
         <v>5</v>
       </c>
       <c r="D6" s="39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="39">
+        <v>10</v>
+      </c>
+      <c r="G6" s="39">
+        <v>8</v>
+      </c>
+      <c r="H6" s="39">
+        <v>10</v>
+      </c>
+      <c r="I6" s="39">
+        <v>10</v>
+      </c>
+      <c r="J6" s="39">
+        <v>9</v>
+      </c>
+      <c r="K6" s="39">
+        <v>8</v>
+      </c>
+      <c r="L6" s="39">
+        <v>10</v>
+      </c>
+      <c r="M6" s="39">
+        <v>9</v>
+      </c>
+      <c r="N6" s="39">
+        <v>8</v>
+      </c>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1">
       <c r="B7" s="37" t="s">
         <v>123</v>
       </c>
@@ -4717,8 +4899,36 @@
       <c r="E7" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1">
+      <c r="F7" s="39">
+        <v>10</v>
+      </c>
+      <c r="G7" s="39">
+        <v>7</v>
+      </c>
+      <c r="H7" s="39">
+        <v>8</v>
+      </c>
+      <c r="I7" s="39">
+        <v>5</v>
+      </c>
+      <c r="J7" s="39">
+        <v>8</v>
+      </c>
+      <c r="K7" s="39">
+        <v>9</v>
+      </c>
+      <c r="L7" s="39">
+        <v>8</v>
+      </c>
+      <c r="M7" s="39">
+        <v>9</v>
+      </c>
+      <c r="N7" s="39">
+        <v>6</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" thickBot="1">
       <c r="B8" s="37" t="s">
         <v>124</v>
       </c>
@@ -4728,23 +4938,81 @@
       <c r="D8" s="39">
         <v>10</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1">
+      <c r="E8" s="39">
+        <v>6</v>
+      </c>
+      <c r="F8" s="39">
+        <v>8</v>
+      </c>
+      <c r="G8" s="39">
+        <v>8</v>
+      </c>
+      <c r="H8" s="39">
+        <v>10</v>
+      </c>
+      <c r="I8" s="39">
+        <v>10</v>
+      </c>
+      <c r="J8" s="39">
+        <v>9</v>
+      </c>
+      <c r="K8" s="39">
+        <v>10</v>
+      </c>
+      <c r="L8" s="39">
+        <v>9</v>
+      </c>
+      <c r="M8" s="39">
+        <v>8</v>
+      </c>
+      <c r="N8" s="39">
+        <v>9</v>
+      </c>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1">
       <c r="B9" s="37" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="39">
         <v>10</v>
       </c>
       <c r="E9" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="39">
+        <v>10</v>
+      </c>
+      <c r="G9" s="39">
+        <v>8</v>
+      </c>
+      <c r="H9" s="39">
+        <v>6</v>
+      </c>
+      <c r="I9" s="39">
+        <v>8</v>
+      </c>
+      <c r="J9" s="39">
+        <v>10</v>
+      </c>
+      <c r="K9" s="39">
+        <v>8</v>
+      </c>
+      <c r="L9" s="39">
+        <v>8</v>
+      </c>
+      <c r="M9" s="39">
+        <v>10</v>
+      </c>
+      <c r="N9" s="39">
+        <v>8</v>
+      </c>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickBot="1">
       <c r="B10" s="37" t="s">
         <v>55</v>
       </c>
@@ -4752,23 +5020,83 @@
         <v>10</v>
       </c>
       <c r="D10" s="39">
-        <v>5</v>
-      </c>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="39">
+        <v>8</v>
+      </c>
+      <c r="F10" s="39">
+        <v>10</v>
+      </c>
+      <c r="G10" s="39">
+        <v>8</v>
+      </c>
+      <c r="H10" s="39">
+        <v>8</v>
+      </c>
+      <c r="I10" s="39">
+        <v>9</v>
+      </c>
+      <c r="J10" s="39">
+        <v>8</v>
+      </c>
+      <c r="K10" s="39">
+        <v>10</v>
+      </c>
+      <c r="L10" s="39">
+        <v>8</v>
+      </c>
+      <c r="M10" s="39">
+        <v>8</v>
+      </c>
+      <c r="N10" s="39">
+        <v>9</v>
+      </c>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" thickBot="1">
       <c r="B11" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="39">
         <v>10</v>
       </c>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1">
+      <c r="E11" s="39">
+        <v>8</v>
+      </c>
+      <c r="F11" s="39">
+        <v>10</v>
+      </c>
+      <c r="G11" s="39">
+        <v>8</v>
+      </c>
+      <c r="H11" s="39">
+        <v>9</v>
+      </c>
+      <c r="I11" s="39">
+        <v>10</v>
+      </c>
+      <c r="J11" s="39">
+        <v>10</v>
+      </c>
+      <c r="K11" s="39">
+        <v>9</v>
+      </c>
+      <c r="L11" s="39">
+        <v>9</v>
+      </c>
+      <c r="M11" s="39">
+        <v>9</v>
+      </c>
+      <c r="N11" s="39">
+        <v>10</v>
+      </c>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" thickBot="1">
       <c r="B12" s="37" t="s">
         <v>59</v>
       </c>
@@ -4778,21 +5106,81 @@
       <c r="D12" s="39">
         <v>10</v>
       </c>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1">
+      <c r="E12" s="39">
+        <v>10</v>
+      </c>
+      <c r="F12" s="39">
+        <v>10</v>
+      </c>
+      <c r="G12" s="39">
+        <v>10</v>
+      </c>
+      <c r="H12" s="39">
+        <v>10</v>
+      </c>
+      <c r="I12" s="39">
+        <v>10</v>
+      </c>
+      <c r="J12" s="39">
+        <v>10</v>
+      </c>
+      <c r="K12" s="39">
+        <v>10</v>
+      </c>
+      <c r="L12" s="39">
+        <v>10</v>
+      </c>
+      <c r="M12" s="39">
+        <v>10</v>
+      </c>
+      <c r="N12" s="39">
+        <v>10</v>
+      </c>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1">
       <c r="B13" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="39">
         <v>10</v>
       </c>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1">
+      <c r="E13" s="39">
+        <v>10</v>
+      </c>
+      <c r="F13" s="39">
+        <v>10</v>
+      </c>
+      <c r="G13" s="39">
+        <v>10</v>
+      </c>
+      <c r="H13" s="39">
+        <v>10</v>
+      </c>
+      <c r="I13" s="39">
+        <v>10</v>
+      </c>
+      <c r="J13" s="39">
+        <v>10</v>
+      </c>
+      <c r="K13" s="39">
+        <v>10</v>
+      </c>
+      <c r="L13" s="39">
+        <v>10</v>
+      </c>
+      <c r="M13" s="39">
+        <v>10</v>
+      </c>
+      <c r="N13" s="39">
+        <v>10</v>
+      </c>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="2:15" ht="15" thickBot="1">
       <c r="B14" s="37" t="s">
         <v>63</v>
       </c>
@@ -4805,8 +5193,36 @@
       <c r="E14" s="39">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1">
+      <c r="F14" s="39">
+        <v>10</v>
+      </c>
+      <c r="G14" s="39">
+        <v>8</v>
+      </c>
+      <c r="H14" s="39">
+        <v>10</v>
+      </c>
+      <c r="I14" s="39">
+        <v>10</v>
+      </c>
+      <c r="J14" s="39">
+        <v>10</v>
+      </c>
+      <c r="K14" s="39">
+        <v>10</v>
+      </c>
+      <c r="L14" s="39">
+        <v>9</v>
+      </c>
+      <c r="M14" s="39">
+        <v>9</v>
+      </c>
+      <c r="N14" s="39">
+        <v>10</v>
+      </c>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="2:15" ht="15" thickBot="1">
       <c r="B15" s="37" t="s">
         <v>65</v>
       </c>
@@ -4819,8 +5235,36 @@
       <c r="E15" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1">
+      <c r="F15" s="39">
+        <v>10</v>
+      </c>
+      <c r="G15" s="39">
+        <v>10</v>
+      </c>
+      <c r="H15" s="39">
+        <v>10</v>
+      </c>
+      <c r="I15" s="39">
+        <v>9</v>
+      </c>
+      <c r="J15" s="39">
+        <v>8</v>
+      </c>
+      <c r="K15" s="39">
+        <v>10</v>
+      </c>
+      <c r="L15" s="39">
+        <v>9</v>
+      </c>
+      <c r="M15" s="39">
+        <v>10</v>
+      </c>
+      <c r="N15" s="39">
+        <v>9</v>
+      </c>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1">
       <c r="B16" s="37" t="s">
         <v>67</v>
       </c>
@@ -4833,8 +5277,36 @@
       <c r="E16" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1">
+      <c r="F16" s="39">
+        <v>10</v>
+      </c>
+      <c r="G16" s="39">
+        <v>9</v>
+      </c>
+      <c r="H16" s="39">
+        <v>10</v>
+      </c>
+      <c r="I16" s="39">
+        <v>10</v>
+      </c>
+      <c r="J16" s="39">
+        <v>9</v>
+      </c>
+      <c r="K16" s="39">
+        <v>9</v>
+      </c>
+      <c r="L16" s="39">
+        <v>10</v>
+      </c>
+      <c r="M16" s="39">
+        <v>9</v>
+      </c>
+      <c r="N16" s="39">
+        <v>10</v>
+      </c>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="2:15" ht="15" thickBot="1">
       <c r="B17" s="37" t="s">
         <v>69</v>
       </c>
@@ -4847,8 +5319,36 @@
       <c r="E17" s="39">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1">
+      <c r="F17" s="39">
+        <v>10</v>
+      </c>
+      <c r="G17" s="39">
+        <v>9</v>
+      </c>
+      <c r="H17" s="39">
+        <v>10</v>
+      </c>
+      <c r="I17" s="39">
+        <v>10</v>
+      </c>
+      <c r="J17" s="39">
+        <v>8</v>
+      </c>
+      <c r="K17" s="39">
+        <v>9</v>
+      </c>
+      <c r="L17" s="39">
+        <v>10</v>
+      </c>
+      <c r="M17" s="39">
+        <v>10</v>
+      </c>
+      <c r="N17" s="39">
+        <v>8</v>
+      </c>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="B18" s="37" t="s">
         <v>71</v>
       </c>
@@ -4861,8 +5361,36 @@
       <c r="E18" s="39">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1">
+      <c r="F18" s="39">
+        <v>8</v>
+      </c>
+      <c r="G18" s="39">
+        <v>10</v>
+      </c>
+      <c r="H18" s="39">
+        <v>9</v>
+      </c>
+      <c r="I18" s="39">
+        <v>8</v>
+      </c>
+      <c r="J18" s="39">
+        <v>10</v>
+      </c>
+      <c r="K18" s="39">
+        <v>9</v>
+      </c>
+      <c r="L18" s="39">
+        <v>10</v>
+      </c>
+      <c r="M18" s="39">
+        <v>9</v>
+      </c>
+      <c r="N18" s="39">
+        <v>10</v>
+      </c>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="2:15" ht="15" thickBot="1">
       <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
@@ -4875,30 +5403,120 @@
       <c r="E19" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1">
+      <c r="F19" s="39">
+        <v>8</v>
+      </c>
+      <c r="G19" s="39">
+        <v>10</v>
+      </c>
+      <c r="H19" s="39">
+        <v>10</v>
+      </c>
+      <c r="I19" s="39">
+        <v>8</v>
+      </c>
+      <c r="J19" s="39">
+        <v>10</v>
+      </c>
+      <c r="K19" s="39">
+        <v>9</v>
+      </c>
+      <c r="L19" s="39">
+        <v>10</v>
+      </c>
+      <c r="M19" s="39">
+        <v>8</v>
+      </c>
+      <c r="N19" s="39">
+        <v>10</v>
+      </c>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="2:15" ht="15" thickBot="1">
       <c r="B20" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="39">
         <v>10</v>
       </c>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1">
+      <c r="E20" s="39">
+        <v>10</v>
+      </c>
+      <c r="F20" s="39">
+        <v>8</v>
+      </c>
+      <c r="G20" s="39">
+        <v>9</v>
+      </c>
+      <c r="H20" s="39">
+        <v>10</v>
+      </c>
+      <c r="I20" s="39">
+        <v>8</v>
+      </c>
+      <c r="J20" s="39">
+        <v>9</v>
+      </c>
+      <c r="K20" s="39">
+        <v>7</v>
+      </c>
+      <c r="L20" s="39">
+        <v>6</v>
+      </c>
+      <c r="M20" s="39">
+        <v>8</v>
+      </c>
+      <c r="N20" s="39">
+        <v>9</v>
+      </c>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" thickBot="1">
       <c r="B21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="39">
+        <v>10</v>
+      </c>
       <c r="D21" s="39">
-        <v>5</v>
-      </c>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="39">
+        <v>8</v>
+      </c>
+      <c r="F21" s="39">
+        <v>8</v>
+      </c>
+      <c r="G21" s="39">
+        <v>7</v>
+      </c>
+      <c r="H21" s="39">
+        <v>8</v>
+      </c>
+      <c r="I21" s="39">
+        <v>7</v>
+      </c>
+      <c r="J21" s="39">
+        <v>8</v>
+      </c>
+      <c r="K21" s="39">
+        <v>7</v>
+      </c>
+      <c r="L21" s="39">
+        <v>9</v>
+      </c>
+      <c r="M21" s="39">
+        <v>8</v>
+      </c>
+      <c r="N21" s="39">
+        <v>7</v>
+      </c>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" thickBot="1">
       <c r="B22" s="37" t="s">
         <v>127</v>
       </c>
@@ -4911,8 +5529,36 @@
       <c r="E22" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1">
+      <c r="F22" s="39">
+        <v>10</v>
+      </c>
+      <c r="G22" s="39">
+        <v>10</v>
+      </c>
+      <c r="H22" s="39">
+        <v>10</v>
+      </c>
+      <c r="I22" s="39">
+        <v>10</v>
+      </c>
+      <c r="J22" s="39">
+        <v>10</v>
+      </c>
+      <c r="K22" s="39">
+        <v>10</v>
+      </c>
+      <c r="L22" s="39">
+        <v>10</v>
+      </c>
+      <c r="M22" s="39">
+        <v>9</v>
+      </c>
+      <c r="N22" s="39">
+        <v>9</v>
+      </c>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" thickBot="1">
       <c r="B23" s="37" t="s">
         <v>128</v>
       </c>
@@ -4925,8 +5571,36 @@
       <c r="E23" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1">
+      <c r="F23" s="39">
+        <v>10</v>
+      </c>
+      <c r="G23" s="39">
+        <v>7</v>
+      </c>
+      <c r="H23" s="39">
+        <v>10</v>
+      </c>
+      <c r="I23" s="39">
+        <v>8</v>
+      </c>
+      <c r="J23" s="39">
+        <v>10</v>
+      </c>
+      <c r="K23" s="39">
+        <v>9</v>
+      </c>
+      <c r="L23" s="39">
+        <v>10</v>
+      </c>
+      <c r="M23" s="39">
+        <v>9</v>
+      </c>
+      <c r="N23" s="39">
+        <v>9</v>
+      </c>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="2:15" ht="15" thickBot="1">
       <c r="B24" s="37" t="s">
         <v>129</v>
       </c>
@@ -4939,8 +5613,36 @@
       <c r="E24" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1">
+      <c r="F24" s="39">
+        <v>10</v>
+      </c>
+      <c r="G24" s="39">
+        <v>10</v>
+      </c>
+      <c r="H24" s="39">
+        <v>8</v>
+      </c>
+      <c r="I24" s="39">
+        <v>10</v>
+      </c>
+      <c r="J24" s="39">
+        <v>9</v>
+      </c>
+      <c r="K24" s="39">
+        <v>8</v>
+      </c>
+      <c r="L24" s="39">
+        <v>10</v>
+      </c>
+      <c r="M24" s="39">
+        <v>9</v>
+      </c>
+      <c r="N24" s="39">
+        <v>10</v>
+      </c>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="2:15" ht="15" thickBot="1">
       <c r="B25" s="37" t="s">
         <v>130</v>
       </c>
@@ -4951,10 +5653,38 @@
         <v>10</v>
       </c>
       <c r="E25" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="F25" s="39">
+        <v>10</v>
+      </c>
+      <c r="G25" s="39">
+        <v>10</v>
+      </c>
+      <c r="H25" s="39">
+        <v>9</v>
+      </c>
+      <c r="I25" s="39">
+        <v>10</v>
+      </c>
+      <c r="J25" s="39">
+        <v>8</v>
+      </c>
+      <c r="K25" s="39">
+        <v>10</v>
+      </c>
+      <c r="L25" s="39">
+        <v>9</v>
+      </c>
+      <c r="M25" s="39">
+        <v>10</v>
+      </c>
+      <c r="N25" s="39">
+        <v>10</v>
+      </c>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="2:15" ht="15" thickBot="1">
       <c r="B26" s="37" t="s">
         <v>87</v>
       </c>
@@ -4965,10 +5695,38 @@
         <v>10</v>
       </c>
       <c r="E26" s="39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="39">
+        <v>10</v>
+      </c>
+      <c r="G26" s="39">
+        <v>9</v>
+      </c>
+      <c r="H26" s="39">
+        <v>10</v>
+      </c>
+      <c r="I26" s="39">
+        <v>9</v>
+      </c>
+      <c r="J26" s="39">
+        <v>10</v>
+      </c>
+      <c r="K26" s="39">
+        <v>10</v>
+      </c>
+      <c r="L26" s="39">
+        <v>9</v>
+      </c>
+      <c r="M26" s="39">
+        <v>10</v>
+      </c>
+      <c r="N26" s="39">
+        <v>10</v>
+      </c>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" thickBot="1">
       <c r="B27" s="37" t="s">
         <v>89</v>
       </c>
@@ -4978,9 +5736,39 @@
       <c r="D27" s="39">
         <v>10</v>
       </c>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="2:5" ht="15" thickBot="1">
+      <c r="E27" s="39">
+        <v>10</v>
+      </c>
+      <c r="F27" s="39">
+        <v>8</v>
+      </c>
+      <c r="G27" s="39">
+        <v>9</v>
+      </c>
+      <c r="H27" s="39">
+        <v>8</v>
+      </c>
+      <c r="I27" s="39">
+        <v>8</v>
+      </c>
+      <c r="J27" s="39">
+        <v>10</v>
+      </c>
+      <c r="K27" s="39">
+        <v>9</v>
+      </c>
+      <c r="L27" s="39">
+        <v>8</v>
+      </c>
+      <c r="M27" s="39">
+        <v>7</v>
+      </c>
+      <c r="N27" s="39">
+        <v>10</v>
+      </c>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="2:15" ht="15" thickBot="1">
       <c r="B28" s="37" t="s">
         <v>131</v>
       </c>
@@ -4990,9 +5778,39 @@
       <c r="D28" s="39">
         <v>10</v>
       </c>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1">
+      <c r="E28" s="39">
+        <v>8</v>
+      </c>
+      <c r="F28" s="39">
+        <v>10</v>
+      </c>
+      <c r="G28" s="39">
+        <v>10</v>
+      </c>
+      <c r="H28" s="39">
+        <v>9</v>
+      </c>
+      <c r="I28" s="39">
+        <v>9</v>
+      </c>
+      <c r="J28" s="39">
+        <v>8</v>
+      </c>
+      <c r="K28" s="39">
+        <v>10</v>
+      </c>
+      <c r="L28" s="39">
+        <v>9</v>
+      </c>
+      <c r="M28" s="39">
+        <v>10</v>
+      </c>
+      <c r="N28" s="39">
+        <v>8</v>
+      </c>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" thickBot="1">
       <c r="B29" s="37" t="s">
         <v>132</v>
       </c>
@@ -5005,8 +5823,36 @@
       <c r="E29" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1">
+      <c r="F29" s="39">
+        <v>10</v>
+      </c>
+      <c r="G29" s="39">
+        <v>10</v>
+      </c>
+      <c r="H29" s="39">
+        <v>9</v>
+      </c>
+      <c r="I29" s="39">
+        <v>10</v>
+      </c>
+      <c r="J29" s="39">
+        <v>10</v>
+      </c>
+      <c r="K29" s="39">
+        <v>10</v>
+      </c>
+      <c r="L29" s="39">
+        <v>9</v>
+      </c>
+      <c r="M29" s="39">
+        <v>10</v>
+      </c>
+      <c r="N29" s="39">
+        <v>10</v>
+      </c>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="15" thickBot="1">
       <c r="B30" s="37" t="s">
         <v>95</v>
       </c>
@@ -5014,35 +5860,127 @@
         <v>5</v>
       </c>
       <c r="D30" s="39">
-        <v>10</v>
-      </c>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="2:5" ht="15" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="39">
+        <v>8</v>
+      </c>
+      <c r="F30" s="39">
+        <v>8</v>
+      </c>
+      <c r="G30" s="39">
+        <v>8</v>
+      </c>
+      <c r="H30" s="39">
+        <v>10</v>
+      </c>
+      <c r="I30" s="39">
+        <v>9</v>
+      </c>
+      <c r="J30" s="39">
+        <v>9</v>
+      </c>
+      <c r="K30" s="39">
+        <v>9</v>
+      </c>
+      <c r="L30" s="39">
+        <v>9</v>
+      </c>
+      <c r="M30" s="39">
+        <v>8</v>
+      </c>
+      <c r="N30" s="39">
+        <v>8</v>
+      </c>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="15" thickBot="1">
       <c r="B31" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1">
+      <c r="C31" s="39">
+        <v>5</v>
+      </c>
+      <c r="D31" s="39">
+        <v>10</v>
+      </c>
+      <c r="E31" s="39">
+        <v>10</v>
+      </c>
+      <c r="F31" s="39">
+        <v>10</v>
+      </c>
+      <c r="G31" s="39">
+        <v>10</v>
+      </c>
+      <c r="H31" s="39">
+        <v>10</v>
+      </c>
+      <c r="I31" s="39">
+        <v>10</v>
+      </c>
+      <c r="J31" s="39">
+        <v>10</v>
+      </c>
+      <c r="K31" s="39">
+        <v>10</v>
+      </c>
+      <c r="L31" s="39">
+        <v>10</v>
+      </c>
+      <c r="M31" s="39">
+        <v>10</v>
+      </c>
+      <c r="N31" s="39">
+        <v>10</v>
+      </c>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" spans="2:15" ht="15" thickBot="1">
       <c r="B32" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="39">
+        <v>8</v>
+      </c>
+      <c r="D32" s="39">
+        <v>10</v>
+      </c>
+      <c r="E32" s="39">
+        <v>10</v>
+      </c>
+      <c r="F32" s="39">
+        <v>8</v>
+      </c>
+      <c r="G32" s="39">
+        <v>10</v>
+      </c>
+      <c r="H32" s="39">
+        <v>10</v>
+      </c>
+      <c r="I32" s="39">
+        <v>10</v>
+      </c>
+      <c r="J32" s="39">
+        <v>8</v>
+      </c>
+      <c r="K32" s="39">
+        <v>9</v>
+      </c>
+      <c r="L32" s="39">
+        <v>8</v>
+      </c>
+      <c r="M32" s="39">
+        <v>10</v>
+      </c>
+      <c r="N32" s="39">
+        <v>10</v>
+      </c>
+      <c r="O32" s="39"/>
+    </row>
+    <row r="33" spans="2:15" ht="15" thickBot="1">
+      <c r="B33" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="D32" s="39">
-        <v>10</v>
-      </c>
-      <c r="E32" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1">
-      <c r="B33" s="37" t="s">
-        <v>136</v>
       </c>
       <c r="C33" s="39">
         <v>10</v>
@@ -5053,62 +5991,196 @@
       <c r="E33" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1">
+      <c r="F33" s="39">
+        <v>10</v>
+      </c>
+      <c r="G33" s="39">
+        <v>8</v>
+      </c>
+      <c r="H33" s="39">
+        <v>9</v>
+      </c>
+      <c r="I33" s="39">
+        <v>10</v>
+      </c>
+      <c r="J33" s="39">
+        <v>9</v>
+      </c>
+      <c r="K33" s="39">
+        <v>10</v>
+      </c>
+      <c r="L33" s="39">
+        <v>8</v>
+      </c>
+      <c r="M33" s="39">
+        <v>8</v>
+      </c>
+      <c r="N33" s="39">
+        <v>10</v>
+      </c>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" spans="2:15" ht="15" thickBot="1">
       <c r="B34" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="39">
+        <v>10</v>
+      </c>
+      <c r="D34" s="39">
+        <v>9</v>
+      </c>
+      <c r="E34" s="39">
+        <v>9</v>
+      </c>
+      <c r="F34" s="39">
+        <v>10</v>
+      </c>
+      <c r="G34" s="39">
+        <v>8</v>
+      </c>
+      <c r="H34" s="39">
+        <v>10</v>
+      </c>
+      <c r="I34" s="39">
+        <v>9</v>
+      </c>
+      <c r="J34" s="39">
+        <v>9</v>
+      </c>
+      <c r="K34" s="39">
+        <v>8</v>
+      </c>
+      <c r="L34" s="39">
+        <v>8</v>
+      </c>
+      <c r="M34" s="39">
+        <v>9</v>
+      </c>
+      <c r="N34" s="39">
+        <v>10</v>
+      </c>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="2:15" ht="15" thickBot="1">
+      <c r="B35" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="39">
-        <v>10</v>
-      </c>
-      <c r="D34" s="39">
-        <v>9</v>
-      </c>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1">
-      <c r="B35" s="37" t="s">
+      <c r="C35" s="39">
+        <v>10</v>
+      </c>
+      <c r="D35" s="39">
+        <v>10</v>
+      </c>
+      <c r="E35" s="39">
+        <v>10</v>
+      </c>
+      <c r="F35" s="39">
+        <v>10</v>
+      </c>
+      <c r="G35" s="39">
+        <v>10</v>
+      </c>
+      <c r="H35" s="39">
+        <v>10</v>
+      </c>
+      <c r="I35" s="39">
+        <v>10</v>
+      </c>
+      <c r="J35" s="39">
+        <v>10</v>
+      </c>
+      <c r="K35" s="39">
+        <v>8</v>
+      </c>
+      <c r="L35" s="39">
+        <v>8</v>
+      </c>
+      <c r="M35" s="39">
+        <v>10</v>
+      </c>
+      <c r="N35" s="39">
+        <v>10</v>
+      </c>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" spans="2:15" ht="15" thickBot="1">
+      <c r="B36" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="39">
-        <v>10</v>
-      </c>
-      <c r="D35" s="39">
-        <v>10</v>
-      </c>
-      <c r="E35" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1">
-      <c r="B36" s="37" t="s">
+      <c r="C36" s="39">
+        <v>8</v>
+      </c>
+      <c r="D36" s="39">
+        <v>10</v>
+      </c>
+      <c r="E36" s="39">
+        <v>7</v>
+      </c>
+      <c r="F36" s="39">
+        <v>10</v>
+      </c>
+      <c r="G36" s="39">
+        <v>8</v>
+      </c>
+      <c r="H36" s="39">
+        <v>10</v>
+      </c>
+      <c r="I36" s="39">
+        <v>10</v>
+      </c>
+      <c r="J36" s="39">
+        <v>9</v>
+      </c>
+      <c r="K36" s="39">
+        <v>9</v>
+      </c>
+      <c r="L36" s="39">
+        <v>10</v>
+      </c>
+      <c r="M36" s="39">
+        <v>8</v>
+      </c>
+      <c r="N36" s="39">
+        <v>10</v>
+      </c>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="2:15" ht="15" thickBot="1">
+      <c r="B37" s="37" t="s">
         <v>139</v>
-      </c>
-      <c r="C36" s="39">
-        <v>5</v>
-      </c>
-      <c r="D36" s="39">
-        <v>10</v>
-      </c>
-      <c r="E36" s="39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1">
-      <c r="B37" s="37" t="s">
-        <v>140</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1">
-      <c r="B38" s="41" t="s">
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+    </row>
+    <row r="38" spans="2:15" ht="15" thickBot="1">
+      <c r="B38" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
